--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>自動実行</t>
   </si>
@@ -1015,7 +1015,13 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>ライム</t>
@@ -1729,7 +1735,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1737,49 +1743,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1787,47 +1793,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1843,1732 +1849,1744 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>96</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>97</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>99</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>101</v>
       </c>
       <c r="B89" t="s">
         <v>102</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>103</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>105</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>107</v>
       </c>
       <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>109</v>
       </c>
       <c r="B93" t="s">
         <v>110</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>112</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>113</v>
       </c>
       <c r="B95" t="s">
         <v>114</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>115</v>
       </c>
       <c r="B96" t="s">
         <v>116</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>117</v>
       </c>
       <c r="B97" t="s">
         <v>118</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>119</v>
       </c>
       <c r="B98" t="s">
         <v>120</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>122</v>
       </c>
       <c r="B99" t="s">
         <v>123</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>124</v>
       </c>
       <c r="B100" t="s">
         <v>125</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>126</v>
       </c>
       <c r="B101" t="s">
         <v>127</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>128</v>
       </c>
       <c r="B102" t="s">
         <v>129</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>130</v>
       </c>
       <c r="B103" t="s">
         <v>131</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>132</v>
       </c>
       <c r="B104" t="s">
         <v>133</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>134</v>
       </c>
       <c r="B105" t="s">
         <v>135</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>136</v>
       </c>
       <c r="B106" t="s">
         <v>137</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>138</v>
       </c>
       <c r="B107" t="s">
         <v>139</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>141</v>
       </c>
       <c r="B109" t="s">
         <v>142</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>143</v>
       </c>
       <c r="B110" t="s">
         <v>144</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>145</v>
       </c>
       <c r="B111" t="s">
         <v>146</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>147</v>
       </c>
       <c r="B112" t="s">
         <v>148</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>149</v>
       </c>
       <c r="B113" t="s">
         <v>150</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>151</v>
       </c>
       <c r="B114" t="s">
         <v>152</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>153</v>
       </c>
       <c r="B115" t="s">
         <v>154</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>155</v>
       </c>
       <c r="B116" t="s">
         <v>156</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>157</v>
       </c>
       <c r="B117" t="s">
         <v>158</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>159</v>
       </c>
       <c r="B118" t="s">
         <v>160</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>161</v>
       </c>
       <c r="B119" t="s">
         <v>162</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>163</v>
       </c>
       <c r="B120" t="s">
         <v>164</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>165</v>
       </c>
       <c r="B121" t="s">
         <v>166</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>167</v>
       </c>
       <c r="B122" t="s">
         <v>168</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>169</v>
       </c>
       <c r="B123" t="s">
         <v>170</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>171</v>
       </c>
       <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>173</v>
       </c>
       <c r="B125" t="s">
         <v>174</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>175</v>
       </c>
       <c r="B126" t="s">
         <v>176</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>177</v>
       </c>
       <c r="B127" t="s">
         <v>178</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>179</v>
       </c>
       <c r="B128" t="s">
         <v>180</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>181</v>
       </c>
       <c r="B129" t="s">
         <v>182</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>183</v>
       </c>
       <c r="B130" t="s">
         <v>184</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>185</v>
       </c>
       <c r="B131" t="s">
         <v>186</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="C195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="C196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B225" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B227" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B241" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B271" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B280" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>自動実行</t>
   </si>
@@ -1139,6 +1139,9 @@
   </si>
   <si>
     <t>hand mirror</t>
+  </si>
+  <si>
+    <t>Hand Mirror</t>
   </si>
   <si>
     <t>今日の探索は諦めようか・・・
@@ -3234,359 +3237,362 @@
       <c r="B227" t="s">
         <v>285</v>
       </c>
+      <c r="C227" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B241" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B271" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B280" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>自動実行</t>
   </si>
@@ -1006,25 +1006,38 @@
 （全回復　時間経過　+1）</t>
   </si>
   <si>
+    <t>Maybe I should rest for a bit...
+(Full recovery and increases the passage of time by 1)</t>
+  </si>
+  <si>
     <t>はい</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>いいえ</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>掃除道具入れ</t>
@@ -3044,555 +3057,567 @@
       <c r="A192" t="s">
         <v>247</v>
       </c>
+      <c r="D192" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="D193" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="D194" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C195" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C196" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="C197" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B213" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B221" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B227" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C227" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B271" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B280" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t>自動実行</t>
   </si>
@@ -376,6 +376,11 @@
 Thank you very much for pleasuring us, okay?</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Aha♥ Look at that, they came again♥
+Look at this weak little penis~
+It really does love to be pleasured, doesn't it?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;んー♥今ので6回目の射精だねー。
 ふたなりにしてもらって、よっぽど気に入ったのかなー？
 くすくす♥</t>
@@ -402,6 +407,11 @@
   </si>
   <si>
     <t>\n&lt;Shina&gt;You're overdoing it big tits.
+By the time it's my turn they'll be dead-nya.
+Come on Lily-nya! My turn next-nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're overdoing it big tits...
 By the time it's my turn they'll be dead-nya.
 Come on Lily-nya! My turn next-nya!</t>
   </si>
@@ -2217,1407 +2227,1407 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D113" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D124" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D125" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D126" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D129" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D130" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D192" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D193" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D194" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C195" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C196" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C197" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B213" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B221" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B225" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B227" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C227" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B241" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B271" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B280" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t>自動実行</t>
   </si>
@@ -49,10 +49,21 @@
 どうやって外に・・・鉄格子は！？</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;Ehh!?
+Alsy!?
+That was an iron cell...how did you get out!?</t>
+  </si>
+  <si>
     <t>開いてた</t>
   </si>
   <si>
+    <t>It opened.</t>
+  </si>
+  <si>
     <t>擦ったら摩擦で溶けた</t>
+  </si>
+  <si>
+    <t>I rubbed it really hard and it melted.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;嘘！
@@ -60,21 +71,41 @@
 ラッキー・・・！</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;You're joking!
+No way...they forgot to lock it!?
+What a stroke of luck...!</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;いや、待って。怪しい・・・
 罠かもしれない。気を付けてあにき。
 あいつら、何か企んでるのかも。</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;No, wait. That's too suspicious...
+It might be a trap. You should be careful Alsy,
+they could be plotting something.</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あれだけ搾られた癖に冗談言うなんて余裕あるね。
 さすがあにき。
 死んどけ。</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;They've been draining you so much, and yet
+you can still crack a joke huh? That's my big brother!
+Still standing!</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;でもこんなに簡単に出られるなんてなんか怪しくない？
 気を付けて。
 罠かもしれないよ。</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;But don't you think it's weird you could just get out?
+Be careful.
+It might be some kind of trap.</t>
+  </si>
+  <si>
     <t>MP_SET_MOVIE アルス立ち絵アニメ基本</t>
   </si>
   <si>
@@ -82,7 +113,7 @@
 どうやって出たんだ！？</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>\n&lt;アルス&gt;Wha, you...!
 How did you get out!?</t>
   </si>
   <si>
@@ -97,17 +128,35 @@
 これはチャンスだぞ！</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;Could they have forgotten to lock the cell...?
+T-This is it!
+This could be our big break!</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;いや待て。何か怪しいな・・・
 こんなに簡単に獲物を逃がすか？
 罠かもしれないぞ。気を付けろ。\n[1]。</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;Wait. Something is off...
+Could escaping really be that easy?
+This could be a trap. Be careful, \n[1].</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;まさか俺の妹がゴリラだったなんてな。
 すまん、この鉄格子も頼む。</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;I had no idea my littler sister was a gorilla!
+I hope you don't mind if I trouble you to do this cell too.</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;どうやら俺の鉄格子はお前のところより固いようだな。
 サビていたのか・・・？</t>
+  </si>
+  <si>
+    <t>\n&lt;アルス&gt;Ah, it seems like the bars of my cell are a bit
+tougher. Were yours rusty...?</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;こんなに簡単に出られるのは逆に怪しいな。
@@ -115,6 +164,11 @@
 気を付けろ。\n[1]。</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;Being able to get out so easily is suspicious indeed.
+It could be a trap.
+Be careful, \n[1].</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;鍵を掛けたかどうか不安な時って結局
 ほとんどの場合はちゃんと鍵掛けてるのよね。
 無意識にっていうか。</t>
@@ -299,6 +353,9 @@
     <t>鉄格子は硬く閉ざされている・・・</t>
   </si>
   <si>
+    <t>The iron bars have been securely fastened...</t>
+  </si>
+  <si>
     <t>EV005</t>
   </si>
   <si>
@@ -306,11 +363,19 @@
 あいつらにやられたのだろうか・・・</t>
   </si>
   <si>
+    <t>A corpse can be seen inside...
+Did those guys really...?</t>
+  </si>
+  <si>
     <t>しかばね</t>
   </si>
   <si>
     <t>返事がない・・・
 ただの屍のようだ・・・</t>
+  </si>
+  <si>
+    <t>There is no response...
+It seems to be just a dead body...</t>
   </si>
   <si>
     <t>ロメ/アル</t>
@@ -434,6 +499,11 @@
 If you die on your own, I'll kill you-nya.</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Huuh?
+But I was next-nya...
+You better not kill him, or I'll kill you too-nya!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ちょっと、次はライムの番よ。
 しれっと順番抜かしてるんじゃないわよ。
 ライム、おいで。</t>
@@ -444,6 +514,11 @@
 Come on Lime.</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Now now, next is Lime's turn.
+Order is very important you know.
+Come on Lime.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;んん・・・！！</t>
   </si>
   <si>
@@ -456,6 +531,10 @@
   <si>
     <t>\n&lt;Shina&gt;Tch...
 Make them cum quickly then-nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Tch...
+Alright, just make him spurt quickly-nya.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;どーお？ライム、美味しい？</t>
@@ -484,6 +563,11 @@
 My hand is all slippery-nya.</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;I can feel it getting really slimy too.
+Nyaha-
+My hand is all slippery-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;んぁっ♥
 ん・・・♥
 ごく・・・ごく・・・♥</t>
@@ -520,6 +604,11 @@
 And now they fainted.</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Mm...paah~
+Sorry. I think I sucked too hard.
+And now they fainted.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃぁ！！
 次アタシにゃぁ！！
 アタシだったのにゃぁー！！</t>
@@ -834,14 +923,28 @@
 屈辱だ・・・</t>
   </si>
   <si>
+    <t>Being forced to wear this prison uniform...
+How humiliating...</t>
+  </si>
+  <si>
     <t>※イベント中の立ち絵アニメの表示を設定します。
 （オプションでいつでも変更可能です）</t>
   </si>
   <si>
+    <t>※Here, you can set if main character is seen during events.
+(You may also change this in the options menu at any time.)</t>
+  </si>
+  <si>
     <t>立ち絵アニメをON</t>
   </si>
   <si>
+    <t>Display the main character</t>
+  </si>
+  <si>
     <t>立ち絵アニメをOFF</t>
+  </si>
+  <si>
+    <t>Do not display the main character</t>
   </si>
   <si>
     <t>立ち絵アニメを表示するようにしました。
@@ -849,23 +952,44 @@
 ※一部の攻撃は立ち絵アニメが自動で非表示になります。</t>
   </si>
   <si>
+    <t>The main character will now be displayed during events.
+※If it is hiding enemy attacks, change it in the options menu.
+※Some enemy attacks will hide the main character by default.</t>
+  </si>
+  <si>
     <t>立ち絵アニメを非表示にしました。</t>
   </si>
   <si>
+    <t>The main character will not be displayed.</t>
+  </si>
+  <si>
     <t>変更しませんでした。</t>
   </si>
   <si>
+    <t>No change was made.</t>
+  </si>
+  <si>
     <t>今は鏡を見ている場合じゃない！</t>
   </si>
   <si>
+    <t>This is no time to watch yourself in the mirror!</t>
+  </si>
+  <si>
     <t>タル</t>
   </si>
   <si>
     <t>中身は空っぽだ・・・</t>
+  </si>
+  <si>
+    <t>It's completely empty...</t>
   </si>
   <si>
     <t>・・・！
 よし、この中なら隠れられそうだ！</t>
+  </si>
+  <si>
+    <t>...!
+That's right, this would be the perfect hiding spot!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;・・・</t>
@@ -998,6 +1122,9 @@
     <t>一応飲めそうな水・・・</t>
   </si>
   <si>
+    <t>Water suitable for drinking...</t>
+  </si>
+  <si>
     <t>この水を全部飲み干して桶を被れば・・・！！</t>
   </si>
   <si>
@@ -1105,7 +1232,13 @@
     <t>まずはあにきに話しかけよう・・・</t>
   </si>
   <si>
+    <t>I should talk to Alsy first...</t>
+  </si>
+  <si>
     <t>まずはロメリアに話しかけよう・・・</t>
+  </si>
+  <si>
+    <t>I should speak with Romelia first...</t>
   </si>
   <si>
     <t>EV022</t>
@@ -1823,1811 +1956,2018 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D109" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D110" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D119" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D126" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B128" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>218</v>
+      </c>
+      <c r="D141" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>220</v>
+      </c>
+      <c r="D142" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>222</v>
+      </c>
+      <c r="D143" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="D144" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>226</v>
+      </c>
+      <c r="D145" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>203</v>
+        <v>228</v>
+      </c>
+      <c r="D146" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>230</v>
+      </c>
+      <c r="D147" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>232</v>
+      </c>
+      <c r="D148" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>235</v>
+      </c>
+      <c r="D150" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>237</v>
+      </c>
+      <c r="D151" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>274</v>
+      </c>
+      <c r="D187" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="D192" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D193" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D194" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C195" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C196" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C197" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>274</v>
+        <v>305</v>
+      </c>
+      <c r="D211" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>275</v>
+        <v>307</v>
+      </c>
+      <c r="D212" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="B213" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B221" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="B225" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="B227" t="s">
-        <v>291</v>
-      </c>
-      <c r="C227" t="s">
-        <v>292</v>
+        <v>324</v>
+      </c>
+      <c r="D227" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="B241" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B271" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="B280" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>自動実行</t>
   </si>
@@ -49,7 +49,7 @@
 どうやって外に・・・鉄格子は！？</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;Ehh!?
+    <t>\n&lt;Romelia&gt;Ehh!?
 Alsy!?
 That was an iron cell...how did you get out!?</t>
   </si>
@@ -71,7 +71,7 @@
 ラッキー・・・！</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;You're joking!
+    <t>\n&lt;Romelia&gt;You're joking!
 No way...they forgot to lock it!?
 What a stroke of luck...!</t>
   </si>
@@ -81,7 +81,7 @@
 あいつら、何か企んでるのかも。</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;No, wait. That's too suspicious...
+    <t>\n&lt;Romelia&gt;No, wait. That's too suspicious...
 It might be a trap. You should be careful Alsy,
 they could be plotting something.</t>
   </si>
@@ -91,7 +91,7 @@
 死んどけ。</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;They've been draining you so much, and yet
+    <t>\n&lt;Romelia&gt;They've been draining you so much, and yet
 you can still crack a joke huh? That's my big brother!
 Still standing!</t>
   </si>
@@ -101,7 +101,7 @@
 罠かもしれないよ。</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;But don't you think it's weird you could just get out?
+    <t>\n&lt;Romelia&gt;But don't you think it's weird you could just get out?
 Be careful.
 It might be some kind of trap.</t>
   </si>
@@ -113,7 +113,11 @@
 どうやって出たんだ！？</t>
   </si>
   <si>
-    <t>\n&lt;アルス&gt;Wha, you...!
+    <t xml:space="preserve">
+How did you get out!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;Wha, you...!
 How did you get out!?</t>
   </si>
   <si>
@@ -128,7 +132,7 @@
 これはチャンスだぞ！</t>
   </si>
   <si>
-    <t>\n&lt;アルス&gt;Could they have forgotten to lock the cell...?
+    <t>\n&lt;Als&gt;Could they have forgotten to lock the cell...?
 T-This is it!
 This could be our big break!</t>
   </si>
@@ -138,7 +142,7 @@
 罠かもしれないぞ。気を付けろ。\n[1]。</t>
   </si>
   <si>
-    <t>\n&lt;アルス&gt;Wait. Something is off...
+    <t>\n&lt;Als&gt;Wait. Something is off...
 Could escaping really be that easy?
 This could be a trap. Be careful, \n[1].</t>
   </si>
@@ -147,7 +151,7 @@
 すまん、この鉄格子も頼む。</t>
   </si>
   <si>
-    <t>\n&lt;アルス&gt;I had no idea my littler sister was a gorilla!
+    <t>\n&lt;Als&gt;I had no idea my littler sister was a gorilla!
 I hope you don't mind if I trouble you to do this cell too.</t>
   </si>
   <si>
@@ -155,7 +159,7 @@
 サビていたのか・・・？</t>
   </si>
   <si>
-    <t>\n&lt;アルス&gt;Ah, it seems like the bars of my cell are a bit
+    <t>\n&lt;Als&gt;Ah, it seems like the bars of my cell are a bit
 tougher. Were yours rusty...?</t>
   </si>
   <si>
@@ -164,7 +168,7 @@
 気を付けろ。\n[1]。</t>
   </si>
   <si>
-    <t>\n&lt;アルス&gt;Being able to get out so easily is suspicious indeed.
+    <t>\n&lt;Als&gt;Being able to get out so easily is suspicious indeed.
 It could be a trap.
 Be careful, \n[1].</t>
   </si>
@@ -174,7 +178,15 @@
 無意識にっていうか。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;鍵を掛けたかどうか不安な時って結局
+ほとんどの場合はちゃんと鍵掛けてるのよね。
+無意識にっていうか。</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;あるあるー。</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;あるあるー。</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;まずい！あいつらだ！
@@ -182,12 +194,26 @@
 どこか隠れられる場所はないか！？</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;まずい！あいつらだ！
+戻って来た！
+どこか隠れられる場所はないか！？</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あいつらの声・・・！！
 戻って来た！！
 どうしようあにき！隠れられる場所とか・・・！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あいつらの声・・・！！
+戻って来た！！
+どうしようあにき！隠れられる場所とか・・・！</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;早く隠れろ！
+どこか・・・なんかあるだろ！</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;早く隠れろ！
 どこか・・・なんかあるだろ！</t>
   </si>
   <si>
@@ -196,21 +222,41 @@
 急いで！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;見つかる前に隠れて！
+早く！
+急いで！</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;・・・
 聞こえてたか？
 なんか妙なことになったな。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;・・・
+聞こえてたか？
+なんか妙なことになったな。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;だけど、これはチャンスでもある。
 あいつらが調子に乗って油断しているうちに
 脱出経路を探すんだ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;だけど、これはチャンスでもある。
+あいつらが調子に乗って油断しているうちに
+脱出経路を探すんだ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;\n[1]。もし逃げられるようなら
 俺の事は気にせず逃げるんだぞ。
 分かったな？</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;\n[1]。もし逃げられるようなら
+俺の事は気にせず逃げるんだぞ。
+分かったな？</t>
+  </si>
+  <si>
     <t>置いてはいけない</t>
   </si>
   <si>
@@ -218,6 +264,10 @@
   </si>
   <si>
     <t>\n&lt;アルス&gt;俺のことは大丈夫だ。
+お前さえ無事なら・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;俺のことは大丈夫だ。
 お前さえ無事なら・・・</t>
   </si>
   <si>
@@ -226,12 +276,25 @@
 それまでの間くらい、耐えてみせるさ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;少し距離はあるが、無事に逃げ延びたら
+ギルドに行って助けを呼んできてくれ。
+それまでの間くらい、耐えてみせるさ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;よし。
 気を付けて行けよ。\n[1]。
 あまり無茶はするな。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;よし。
+気を付けて行けよ。\n[1]。
+あまり無茶はするな。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;ぐぅ～・・・・（腹の鳴る音）</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;ぐぅ～・・・・（腹の鳴る音）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;あにき、お腹鳴ってるよ。
@@ -239,6 +302,10 @@
   </si>
   <si>
     <t>\n&lt;アルス&gt;う・・・悪い。
+余裕があったらでいいぞ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;う・・・悪い。
 余裕があったらでいいぞ。</t>
   </si>
   <si>
@@ -247,12 +314,25 @@
 まぁ、ある意味チャンスだけど。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;なんか変なことになったね。
+脱出ゲーム・・・
+まぁ、ある意味チャンスだけど。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あの三馬鹿が調子に乗っているうちに
 なんとかここを抜け出す方法を探そう！
 あにき、頑張れ！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あの三馬鹿が調子に乗っているうちに
+なんとかここを抜け出す方法を探そう！
+あにき、頑張れ！</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;ぐぅ～・・・（お腹の鳴る音）</t>
+  </si>
+  <si>
+    <t>\n&lt;Romelia&gt;ぐぅ～・・・（お腹の鳴る音）</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あ、ごめん。
@@ -260,6 +340,11 @@
 お、お腹空きすぎて・・・</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あ、ごめん。
+何か食べるものあったらお願いできる？
+お、お腹空きすぎて・・・</t>
+  </si>
+  <si>
     <t>\C[3]※SAN値（正気度）について
 \C[0]捕まって搾り取られたりすると正気を失って行きます。
 SAN値によって発生するイベントが変わります。</t>
@@ -269,7 +354,15 @@
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
+    <t>SAN値はお菓子を見つけてAlsに渡すことで回復します。
+現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
+  </si>
+  <si>
     <t>SAN値はお菓子を見つけてロメリアに渡すことで回復します。
+現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
+  </si>
+  <si>
+    <t>SAN値はお菓子を見つけてRomeliaに渡すことで回復します。
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
@@ -278,6 +371,11 @@
 こじ開けるんだけどなぁ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;うーん。
+俺がゴリラだったらこんな檻ぐらい
+こじ開けるんだけどなぁ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;動物園のゴリラは檻に入れられてるから。</t>
   </si>
   <si>
@@ -286,11 +384,21 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;見つからないように気を付けて行け。
+おそらく正面玄関は鍵がかけられて使えないだろう。
+脱出経路を探すんだ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;いいか\n[1]。
 アルストロメリアの花言葉は『未来への憧れ』だ。
 俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;いいか\n[1]。
+AlsトRomeliaの花言葉は『未来への憧れ』だ。
+俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;うん。ありがとあにき。
 でもそれ恥ずかしいから外で言わないでね。</t>
   </si>
@@ -300,21 +408,41 @@
 なるべく見つからないように、こっそりね。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あにき。頼りにしてる。
+頑張って。
+なるべく見つからないように、こっそりね。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;アルストロメリアの花言葉は『未来への憧れ』。
 私たちならきっと、上手く行くよ。
 あにきがいてくれて良かった。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;AlsトRomeliaの花言葉は『未来への憧れ』。
+私たちならきっと、上手く行くよ。
+あにきがいてくれて良かった。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;ふたりでひとつみたいな名前、
 今まで大分恥ずかしい思いしたけどね。
 でも嫌じゃなかったよ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;ふたりでひとつみたいな名前、
+今まで大分恥ずかしい思いしたけどね。
+でも嫌じゃなかったよ。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;しょうがないことかもしれないけど、
 あんまり淫魔相手にえっちなこと考えないでよ？
 魔物なんだからね。化け物だよ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;しょうがないことかもしれないけど、
+あんまり淫魔相手にえっちなこと考えないでよ？
+魔物なんだからね。化け物だよ。</t>
+  </si>
+  <si>
     <t>\C[3]戦わずに帰る</t>
   </si>
   <si>
@@ -328,7 +456,15 @@
 \n[1]！！よくやった！！</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;鍵・・・！！
+\n[1]！！よくやった！！</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;開いた！！
+あにき！ありがとう！</t>
+  </si>
+  <si>
+    <t>\n&lt;Romelia&gt;開いた！！
 あにき！ありがとう！</t>
   </si>
   <si>
@@ -337,16 +473,31 @@
 逃げよう！</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;\n[1]・・・！
+サンタがロープ持ってきてくれたよ！
+逃げよう！</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;あと少しなんだな？
 分かった。信じて待つ。
 お前は強い女だな。兄として鼻が高いぜ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;あと少しなんだな？
+分かった。信じて待つ。
+お前は強い女だな。兄として鼻が高いぜ。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;戦って来るんだね。
 分かった。
 待ってる。あにき。大好きだよ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;戦って来るんだね。
+分かった。
+待ってる。あにき。大好きだよ。</t>
+  </si>
+  <si>
     <t>EV004</t>
   </si>
   <si>
@@ -499,11 +650,6 @@
 If you die on your own, I'll kill you-nya.</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt;Huuh?
-But I was next-nya...
-You better not kill him, or I'll kill you too-nya!</t>
-  </si>
-  <si>
     <t>\n&lt;リリー&gt;ちょっと、次はライムの番よ。
 しれっと順番抜かしてるんじゃないわよ。
 ライム、おいで。</t>
@@ -514,11 +660,6 @@
 Come on Lime.</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;Now now, next is Lime's turn.
-Order is very important you know.
-Come on Lime.</t>
-  </si>
-  <si>
     <t>\n&lt;ライム&gt;んん・・・！！</t>
   </si>
   <si>
@@ -531,10 +672,6 @@
   <si>
     <t>\n&lt;Shina&gt;Tch...
 Make them cum quickly then-nya.</t>
-  </si>
-  <si>
-    <t>\n&lt;Shina&gt;Tch...
-Alright, just make him spurt quickly-nya.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;どーお？ライム、美味しい？</t>
@@ -563,11 +700,6 @@
 My hand is all slippery-nya.</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt;I can feel it getting really slimy too.
-Nyaha-
-My hand is all slippery-nya.</t>
-  </si>
-  <si>
     <t>\n&lt;ライム&gt;んぁっ♥
 ん・・・♥
 ごく・・・ごく・・・♥</t>
@@ -604,11 +736,6 @@
 And now they fainted.</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;Mm...paah~
-Sorry. I think I sucked too hard.
-And now they fainted.</t>
-  </si>
-  <si>
     <t>\n&lt;シィナ&gt;にゃぁ！！
 次アタシにゃぁ！！
 アタシだったのにゃぁー！！</t>
@@ -995,10 +1122,19 @@
     <t>\n&lt;リリー&gt;・・・</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;・・・</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;...</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;逃げられてやんの。</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;So they did escape.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ちょっとあんた！
@@ -1006,66 +1142,134 @@
 何か知ってるんでしょ。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Hey, you!
+Where did they go!
+Surely you know something.</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;もうとっくに逃げたぜ。
 残念だったな。
 （無事に隠れられたようだな・・・）</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;You're too late.
+I'm afraid they're already far away from here now.
+(It seems they were able to hide safely...)</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;知らなーい。
 私寝てたから。
 ひょっとして逃げられたのー？</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;No clue what so ever.
+I was lying down over here.
+Did they escape or something-?</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;いいなー。
 私も出してよー。くす。
 （上手く隠れたみたい・・・良かった。）</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;That's so good to hear-
+Soon I'll get out too- Teehee!
+(They must have hid really well...thank goodness.)</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;うーん・・・
 ちょっと遅かったみたい。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Oooh...
+I guess we were too slow.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;どんまいにゃ。
 にゃはははは。</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Don't worry about it-nya.
+Nyahahaha~</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ふふ・・・</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Fufu...</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あはははは！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahhahahaha!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;私の思惑通りだわ。
 こうも事が上手く運ぶなんてね。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Just as I had expected-
+I can't believe things worked out so well~</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;どした？
 大丈夫にゃ？</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;What?
+Are you okay-nya?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;リリー？</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lily?</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;退屈だったからね。
 これはちょっとしたゲームよ。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Things have been so dull lately you know.
+So I did this as part of a little game.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;ゲーム・・・？</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;A game...?</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;あいつがこの館から脱出するのが先か、
 それとも私たちに捕まって弄ばれるのが先か。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Will they escape the mansion?
+Or will we catch and play with them first?</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;これは『暇つぶしの脱出ゲーム』に付き合ってもらう為の罠。
 そして、まんまと引っかかったわね。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;This was all just an elaborate ruse to get you
+to play my "Timewasting Escape Game!"
+And they fell right for it-</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;鍵はあえて掛けていなかったの。
 \.あ・\.え・\.て・\.ね。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;I didn't lock the door on purpose.
+\.ON・\.PUR-・\.POSE・\.!</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;（嘘が下手すぎる）</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;(She's so bad at lying.)</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;面白そうにゃ！！
@@ -1073,13 +1277,28 @@
 て、天才にゃ！！</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Ooh how interesting-nya!!
+Only you could think of such a thing Lily!
+Y-You're a genius-nya!!</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;なんだと！？</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;T-This was your plan all along!?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;（なんで信じてるのー！）</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;(...They're actually believing this!)</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;鍵掛け忘れたんなら素直にそう言えば</t>
+  </si>
+  <si>
+    <t>\n&lt;Romelia&gt;If you forgot to lock the door,
+you could just say so.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;捕まえたら好きなだけ搾り取っていいわよ。
@@ -1087,33 +1306,67 @@
 ふふふ♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;When I catch them, I can squeeze them as much as I like.
+Now then, I wonder how long they will be able to resist?
+Ufufu♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;この館はそう簡単に出られないように出来てるの。
 快楽に負けて精奴隷に堕ちないよう、精々足掻くといいわ。
 あははははは！</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;This mansion will not be so easy to escape from.
+Struggle and paw the ground as you try not to fall to the
+bliss of becoming our semen slave- Ahahaha!</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃはははは！</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Nyahahaha!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あははははははは！！</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Ahahahahahaha!!</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃははははははは！！！</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Nyahahahahahahaa!!!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;おーっほっほっほっほ！！</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Oohohohohohoho!!</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃーはっはっはっ！！！</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Nya-ha ha ha ha!!!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;行くわよ。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Off we go.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;仕切んな。</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Don't get in the way.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;（楽しそうなことになってきたぞー・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;(Fun idea, for a fun game...)</t>
   </si>
   <si>
     <t>水</t>
@@ -1305,10 +1558,21 @@
 \C[10]ライムの夜這い発生</t>
   </si>
   <si>
+    <t>Should I give up today's search...?
+(Full Recovery and Passage of Time +1)
+\C[10]Lime will sneak in tonight.</t>
+  </si>
+  <si>
     <t>\C[10]諦める</t>
   </si>
   <si>
+    <t>\C[10]Give up</t>
+  </si>
+  <si>
     <t>まだ頑張る</t>
+  </si>
+  <si>
+    <t>Keep at it</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;しー！
@@ -1535,27 +1799,52 @@
 オプションからいつでも変更可能です。</t>
   </si>
   <si>
+    <t>※You can toggle the skipping of vore events here.
+This can be changed at any time in the options menu.</t>
+  </si>
+  <si>
     <t>捕食描写を見る</t>
   </si>
   <si>
+    <t>View vore events.</t>
+  </si>
+  <si>
     <t>捕食描写を見ない</t>
   </si>
   <si>
+    <t>Do not view vore events.</t>
+  </si>
+  <si>
     <t>説明</t>
   </si>
   <si>
     <t>捕食描写を見るようにしました。</t>
   </si>
   <si>
+    <t>Events with vore will be viewed.</t>
+  </si>
+  <si>
     <t>捕食描写を見ないようにしました。</t>
+  </si>
+  <si>
+    <t>Events with vore will not be viewed.</t>
   </si>
   <si>
     <t>丸飲みされたり消化されたりする描写をスキップできます。
 苦手な方はご利用ください。</t>
   </si>
   <si>
+    <t>You can decide to skip any events that involve being
+digested or swallowed.
+If these events are not your cup of tea, please use this.</t>
+  </si>
+  <si>
     <t>また、捕食でも快楽を伴うものとなっておりますので
 苦痛などの描写はありません。</t>
+  </si>
+  <si>
+    <t>To note, acts of digestion are always accompanied by pleasure.
+There are no descriptions of pain or suffering.</t>
   </si>
 </sst>
 </file>
@@ -1951,6 +2240,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -2017,1957 +2309,2140 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D92" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D94" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="D110" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="D111" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D112" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D116" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="D118" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="D120" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="D123" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D126" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="D128" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="D129" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D130" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D131" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D141" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D142" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D143" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D144" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="D147" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="D148" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="D150" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D151" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>239</v>
+        <v>267</v>
+      </c>
+      <c r="D152" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>240</v>
+        <v>269</v>
+      </c>
+      <c r="D153" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>241</v>
+        <v>271</v>
+      </c>
+      <c r="D154" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>242</v>
+        <v>273</v>
+      </c>
+      <c r="D155" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>243</v>
+        <v>275</v>
+      </c>
+      <c r="D156" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>244</v>
+        <v>277</v>
+      </c>
+      <c r="D157" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>245</v>
+        <v>279</v>
+      </c>
+      <c r="D158" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>246</v>
+        <v>281</v>
+      </c>
+      <c r="D159" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>247</v>
+        <v>283</v>
+      </c>
+      <c r="D160" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>248</v>
+        <v>285</v>
+      </c>
+      <c r="D161" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>249</v>
+        <v>287</v>
+      </c>
+      <c r="D162" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>289</v>
+      </c>
+      <c r="D163" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>251</v>
+        <v>291</v>
+      </c>
+      <c r="D164" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>252</v>
+        <v>293</v>
+      </c>
+      <c r="D165" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>253</v>
+        <v>295</v>
+      </c>
+      <c r="D166" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>254</v>
+        <v>297</v>
+      </c>
+      <c r="D167" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>255</v>
+        <v>299</v>
+      </c>
+      <c r="D168" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>301</v>
+      </c>
+      <c r="D169" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>257</v>
+        <v>303</v>
+      </c>
+      <c r="D170" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>258</v>
+        <v>305</v>
+      </c>
+      <c r="D171" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>259</v>
+        <v>307</v>
+      </c>
+      <c r="D172" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>260</v>
+        <v>309</v>
+      </c>
+      <c r="D173" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>261</v>
+        <v>311</v>
+      </c>
+      <c r="D174" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>262</v>
+        <v>313</v>
+      </c>
+      <c r="D175" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>263</v>
+        <v>315</v>
+      </c>
+      <c r="D176" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>264</v>
+        <v>317</v>
+      </c>
+      <c r="D177" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>265</v>
+        <v>319</v>
+      </c>
+      <c r="D178" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>266</v>
+        <v>321</v>
+      </c>
+      <c r="D179" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>267</v>
+        <v>323</v>
+      </c>
+      <c r="D180" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>325</v>
+      </c>
+      <c r="D181" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>269</v>
+        <v>327</v>
+      </c>
+      <c r="D182" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>270</v>
+        <v>329</v>
+      </c>
+      <c r="D183" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>271</v>
+        <v>331</v>
+      </c>
+      <c r="D184" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>272</v>
+        <v>333</v>
+      </c>
+      <c r="D185" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="D187" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="D192" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="D193" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="D194" t="s">
-        <v>285</v>
+        <v>347</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="C195" t="s">
-        <v>287</v>
+        <v>349</v>
+      </c>
+      <c r="D195" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="C196" t="s">
-        <v>289</v>
+        <v>351</v>
+      </c>
+      <c r="D196" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="C197" t="s">
-        <v>291</v>
+        <v>353</v>
+      </c>
+      <c r="D197" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="D211" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
       <c r="D212" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="B213" t="s">
-        <v>309</v>
+        <v>371</v>
+      </c>
+      <c r="D213" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="B221" t="s">
-        <v>317</v>
+        <v>379</v>
+      </c>
+      <c r="D221" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="B225" t="s">
-        <v>321</v>
+        <v>383</v>
+      </c>
+      <c r="D225" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="B227" t="s">
-        <v>324</v>
+        <v>386</v>
+      </c>
+      <c r="C227" t="s">
+        <v>387</v>
       </c>
       <c r="D227" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>326</v>
+        <v>388</v>
+      </c>
+      <c r="D228" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>327</v>
+        <v>390</v>
+      </c>
+      <c r="D229" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>328</v>
+        <v>392</v>
+      </c>
+      <c r="D230" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>329</v>
+        <v>394</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>331</v>
+        <v>396</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="B241" t="s">
-        <v>339</v>
+        <v>404</v>
+      </c>
+      <c r="D241" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="B271" t="s">
-        <v>369</v>
+        <v>434</v>
+      </c>
+      <c r="D271" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>370</v>
+        <v>435</v>
+      </c>
+      <c r="D272" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="B280" t="s">
-        <v>378</v>
+        <v>443</v>
+      </c>
+      <c r="D280" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>379</v>
+        <v>444</v>
+      </c>
+      <c r="D281" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>387</v>
+        <v>452</v>
+      </c>
+      <c r="D289" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>388</v>
+        <v>454</v>
+      </c>
+      <c r="D290" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>389</v>
+        <v>456</v>
+      </c>
+      <c r="D291" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>390</v>
+        <v>458</v>
+      </c>
+      <c r="D292" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>391</v>
+        <v>459</v>
+      </c>
+      <c r="D293" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>392</v>
+        <v>461</v>
+      </c>
+      <c r="D294" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>393</v>
+        <v>463</v>
+      </c>
+      <c r="D295" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>394</v>
+        <v>465</v>
+      </c>
+      <c r="D296" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="476">
   <si>
     <t>自動実行</t>
   </si>
@@ -178,15 +178,15 @@
 無意識にっていうか。</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;鍵を掛けたかどうか不安な時って結局
-ほとんどの場合はちゃんと鍵掛けてるのよね。
-無意識にっていうか。</t>
+    <t>\n&lt;Lily&gt;You know, when someone is concerned they forgot to shut a door,
+there's a 99% chance they closed it to begin with.
+It's like a subconscious thing.</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;あるあるー。</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;あるあるー。</t>
+    <t>\n&lt;Lime&gt;Such is the way of life-.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;まずい！あいつらだ！
@@ -194,9 +194,9 @@
 どこか隠れられる場所はないか！？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;まずい！あいつらだ！
-戻って来た！
-どこか隠れられる場所はないか！？</t>
+    <t>\n&lt;Als&gt;Not good! It's them!
+They've come back!
+Is there some place you can hide!?</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あいつらの声・・・！！
@@ -204,17 +204,17 @@
 どうしようあにき！隠れられる場所とか・・・！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あいつらの声・・・！！
-戻って来た！！
-どうしようあにき！隠れられる場所とか・・・！</t>
+    <t>\n&lt;Romelia&gt;Those voices...!!
+They're coming back!!
+What do we do Alsy! There must be somewhere you can hide...!</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;早く隠れろ！
 どこか・・・なんかあるだろ！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;早く隠れろ！
-どこか・・・なんかあるだろ！</t>
+    <t>\n&lt;Als&gt;Hide, on the double!
+There must be somewhere around!</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;見つかる前に隠れて！
@@ -222,9 +222,9 @@
 急いで！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;見つかる前に隠れて！
-早く！
-急いで！</t>
+    <t>\n&lt;Romelia&gt;Hide before they spot you!
+Quickly!
+And hurry!</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;・・・
@@ -232,9 +232,9 @@
 なんか妙なことになったな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;・・・
-聞こえてたか？
-なんか妙なことになったな。</t>
+    <t>\n&lt;Als&gt;...
+Did you hear that?
+Now that was weird.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;だけど、これはチャンスでもある。
@@ -242,9 +242,9 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;だけど、これはチャンスでもある。
-あいつらが調子に乗って油断しているうちに
-脱出経路を探すんだ。</t>
+    <t>\n&lt;Als&gt;But, this could be our big chance.
+It's the perfect time to search for an escape route
+while they're caught up in the moment.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;\n[1]。もし逃げられるようなら
@@ -252,23 +252,29 @@
 分かったな？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;\n[1]。もし逃げられるようなら
-俺の事は気にせず逃げるんだぞ。
-分かったな？</t>
+    <t>\n&lt;Als&gt;\n[1]. If you are able to run away, 
+then do so. Do not worry about me.
+Do you understand?</t>
   </si>
   <si>
     <t>置いてはいけない</t>
   </si>
   <si>
+    <t>Don't say things like that.</t>
+  </si>
+  <si>
     <t>うん</t>
+  </si>
+  <si>
+    <t>I understand.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;俺のことは大丈夫だ。
 お前さえ無事なら・・・</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;俺のことは大丈夫だ。
-お前さえ無事なら・・・</t>
+    <t>\n&lt;Als&gt;I will be just fine.
+As long as you are safe...</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;少し距離はあるが、無事に逃げ延びたら
@@ -276,9 +282,9 @@
 それまでの間くらい、耐えてみせるさ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;少し距離はあるが、無事に逃げ延びたら
-ギルドに行って助けを呼んできてくれ。
-それまでの間くらい、耐えてみせるさ。</t>
+    <t>\n&lt;Als&gt;Although it is a little far from here, there is
+a nearby guild you can call on for help.
+Until then, I'll be waiting.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;よし。
@@ -286,27 +292,31 @@
 あまり無茶はするな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;よし。
-気を付けて行けよ。\n[1]。
-あまり無茶はするな。</t>
+    <t>\n&lt;Als&gt;That's it.
+Be careful, \n[1].
+Don't do anything rash.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;ぐぅ～・・・・（腹の鳴る音）</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;ぐぅ～・・・・（腹の鳴る音）</t>
+    <t>\n&lt;Als&gt;*Gurgle...* (You can hear their belly rumble)</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;あにき、お腹鳴ってるよ。
 何か食べ物があったら持ってくるね。</t>
   </si>
   <si>
+    <t>\n&lt;\n[1]&gt;Alsy, I can hear your stomach groaning.
+I'll bring back some food for you, okay?</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;う・・・悪い。
 余裕があったらでいいぞ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;う・・・悪い。
-余裕があったらでいいぞ。</t>
+    <t>\n&lt;Als&gt;I'm...fine.
+There is no need to rush yourself for me.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;なんか変なことになったね。
@@ -314,9 +324,9 @@
 まぁ、ある意味チャンスだけど。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;なんか変なことになったね。
-脱出ゲーム・・・
-まぁ、ある意味チャンスだけど。</t>
+    <t>\n&lt;Romelia&gt;That was kind of weird wasn't it?
+An escape game...
+Well, this could be a big chance for us though.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あの三馬鹿が調子に乗っているうちに
@@ -324,15 +334,15 @@
 あにき、頑張れ！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あの三馬鹿が調子に乗っているうちに
-なんとかここを抜け出す方法を探そう！
-あにき、頑張れ！</t>
+    <t>\n&lt;Romelia&gt;You might be able to look for some way out
+while those three idiots are distracted!
+Do your best, Alsy!</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;ぐぅ～・・・（お腹の鳴る音）</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;ぐぅ～・・・（お腹の鳴る音）</t>
+    <t>\n&lt;Romelia&gt;*Groan...* (You can hear their stomach growling)</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あ、ごめん。
@@ -340,9 +350,9 @@
 お、お腹空きすぎて・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あ、ごめん。
-何か食べるものあったらお願いできる？
-お、お腹空きすぎて・・・</t>
+    <t>\n&lt;Romelia&gt;Ah, sorry about that.
+Could I ask you to get something to eat when you go?
+M-My stomach is killing me...</t>
   </si>
   <si>
     <t>\C[3]※SAN値（正気度）について
@@ -350,20 +360,27 @@
 SAN値によって発生するイベントが変わります。</t>
   </si>
   <si>
+    <t>\C[3]※Sanity Level Explaination:
+\C[0]If you are caught and milked, your mind can become lost in pleasure.
+During these events, your sanity level will change.</t>
+  </si>
+  <si>
     <t>SAN値はお菓子を見つけてアルスに渡すことで回復します。
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
-    <t>SAN値はお菓子を見つけてAlsに渡すことで回復します。
-現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
+    <t>Sanity levels can be recovered by finding snacks and sharing them with Als.
+Your current sanity can be checked by using the Hand Mirror in your items list.
+(Sanity is initially set to 10)</t>
   </si>
   <si>
     <t>SAN値はお菓子を見つけてロメリアに渡すことで回復します。
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
-    <t>SAN値はお菓子を見つけてRomeliaに渡すことで回復します。
-現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
+    <t>Sanity levels can be recovered by finding snacks and sharing them with Romelia.
+Your current sanity can be checked by using the Hand Mirror in your items list.
+(Sanity is initially set to 10)</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;うーん。
@@ -536,6 +553,9 @@
 兄貴までこんなことになって・・・</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;ごめんね。</t>
+  </si>
+  <si>
     <t>気にするな</t>
   </si>
   <si>
@@ -650,6 +670,11 @@
 If you die on your own, I'll kill you-nya.</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Huuh?
+I was next-nya...
+If you kill him, I'll kill you-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ちょっと、次はライムの番よ。
 しれっと順番抜かしてるんじゃないわよ。
 ライム、おいで。</t>
@@ -700,6 +725,10 @@
 My hand is all slippery-nya.</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;It feels all slimy too. Nyaha!
+My hand is all slippery-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;んぁっ♥
 ん・・・♥
 ごく・・・ごく・・・♥</t>
@@ -736,6 +765,11 @@
 And now they fainted.</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Pahh...
+Sorry. I think I sucked too hard.
+And now they fainted.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃぁ！！
 次アタシにゃぁ！！
 アタシだったのにゃぁー！！</t>
@@ -812,6 +846,9 @@
     <t>\n&lt;Romeria&gt; This way!</t>
   </si>
   <si>
+    <t>\n&lt;Romeria&gt;This way!</t>
+  </si>
+  <si>
     <t>最初のイベ</t>
   </si>
   <si>
@@ -1843,7 +1880,7 @@
 苦痛などの描写はありません。</t>
   </si>
   <si>
-    <t>To note, acts of digestion are always accompanied by pleasure.
+    <t>Furthermore, acts of digestion are always accompanied by pleasure.
 There are no descriptions of pain or suffering.</t>
   </si>
 </sst>
@@ -2444,2005 +2481,2008 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D111" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D112" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D113" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D120" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D121" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D122" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D123" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D124" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D125" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D128" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D141" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D142" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D144" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D145" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D151" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D153" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D154" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D155" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D156" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D158" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D159" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D160" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D161" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D162" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D163" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D164" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D165" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D166" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D167" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D168" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D169" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D170" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D171" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D172" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D173" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D174" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D175" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D176" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D177" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D178" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D179" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D180" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D181" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D182" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D183" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D184" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D185" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D187" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D192" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D193" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C195" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C196" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D196" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C197" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D197" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D211" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D212" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B213" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D213" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B221" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D221" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B225" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D225" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B227" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C227" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D227" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D228" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D229" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D230" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B241" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D241" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B271" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D271" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D272" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B280" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D280" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D281" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D289" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D290" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D291" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D292" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D293" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D294" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D295" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D296" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t>自動実行</t>
   </si>
@@ -49,7 +49,7 @@
 どうやって外に・・・鉄格子は！？</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;Ehh!?
+    <t>\n&lt;Meria&gt;Ehh!?
 Alsy!?
 That was an iron cell...how did you get out!?</t>
   </si>
@@ -71,7 +71,7 @@
 ラッキー・・・！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;You're joking!
+    <t>\n&lt;Meria&gt;You're joking!
 No way...they forgot to lock it!?
 What a stroke of luck...!</t>
   </si>
@@ -81,7 +81,7 @@
 あいつら、何か企んでるのかも。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;No, wait. That's too suspicious...
+    <t>\n&lt;Meria&gt;No, wait. That's too suspicious...
 It might be a trap. You should be careful Alsy,
 they could be plotting something.</t>
   </si>
@@ -91,7 +91,7 @@
 死んどけ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;They've been draining you so much, and yet
+    <t>\n&lt;Meria&gt;They've been draining you so much, and yet
 you can still crack a joke huh? That's my big brother!
 Still standing!</t>
   </si>
@@ -101,7 +101,7 @@
 罠かもしれないよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;But don't you think it's weird you could just get out?
+    <t>\n&lt;Meria&gt;But don't you think it's weird you could just get out?
 Be careful.
 It might be some kind of trap.</t>
   </si>
@@ -117,7 +117,7 @@
 How did you get out!?</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Wha, you...!
+    <t>\n&lt;Alsto&gt;Wha, you...!
 How did you get out!?</t>
   </si>
   <si>
@@ -132,7 +132,7 @@
 これはチャンスだぞ！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Could they have forgotten to lock the cell...?
+    <t>\n&lt;Alsto&gt;Could they have forgotten to lock the cell...?
 T-This is it!
 This could be our big break!</t>
   </si>
@@ -142,7 +142,7 @@
 罠かもしれないぞ。気を付けろ。\n[1]。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Wait. Something is off...
+    <t>\n&lt;Alsto&gt;Wait. Something is off...
 Could escaping really be that easy?
 This could be a trap. Be careful, \n[1].</t>
   </si>
@@ -151,7 +151,7 @@
 すまん、この鉄格子も頼む。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I had no idea my littler sister was a gorilla!
+    <t>\n&lt;Alsto&gt;I had no idea my littler sister was a gorilla!
 I hope you don't mind if I trouble you to do this cell too.</t>
   </si>
   <si>
@@ -159,7 +159,7 @@
 サビていたのか・・・？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Ah, it seems like the bars of my cell are a bit
+    <t>\n&lt;Alsto&gt;Ah, it seems like the bars of my cell are a bit
 tougher. Were yours rusty...?</t>
   </si>
   <si>
@@ -168,7 +168,7 @@
 気を付けろ。\n[1]。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Being able to get out so easily is suspicious indeed.
+    <t>\n&lt;Alsto&gt;Being able to get out so easily is suspicious indeed.
 It could be a trap.
 Be careful, \n[1].</t>
   </si>
@@ -194,7 +194,7 @@
 どこか隠れられる場所はないか！？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Not good! It's them!
+    <t>\n&lt;Alsto&gt;Not good! It's them!
 They've come back!
 Is there some place you can hide!?</t>
   </si>
@@ -204,7 +204,7 @@
 どうしようあにき！隠れられる場所とか・・・！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;Those voices...!!
+    <t>\n&lt;Meria&gt;Those voices...!!
 They're coming back!!
 What do we do Alsy! There must be somewhere you can hide...!</t>
   </si>
@@ -213,7 +213,7 @@
 どこか・・・なんかあるだろ！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Hide, on the double!
+    <t>\n&lt;Alsto&gt;Hide, on the double!
 There must be somewhere around!</t>
   </si>
   <si>
@@ -222,7 +222,7 @@
 急いで！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;Hide before they spot you!
+    <t>\n&lt;Meria&gt;Hide before they spot you!
 Quickly!
 And hurry!</t>
   </si>
@@ -232,7 +232,7 @@
 なんか妙なことになったな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;...
+    <t>\n&lt;Alsto&gt;...
 Did you hear that?
 Now that was weird.</t>
   </si>
@@ -242,7 +242,7 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;But, this could be our big chance.
+    <t>\n&lt;Alsto&gt;But, this could be our big chance.
 It's the perfect time to search for an escape route
 while they're caught up in the moment.</t>
   </si>
@@ -252,7 +252,7 @@
 分かったな？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;\n[1]. If you are able to run away, 
+    <t>\n&lt;Alsto&gt;\n[1]. If you are able to run away, 
 then do so. Do not worry about me.
 Do you understand?</t>
   </si>
@@ -273,7 +273,7 @@
 お前さえ無事なら・・・</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I will be just fine.
+    <t>\n&lt;Alsto&gt;I will be just fine.
 As long as you are safe...</t>
   </si>
   <si>
@@ -282,7 +282,7 @@
 それまでの間くらい、耐えてみせるさ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Although it is a little far from here, there is
+    <t>\n&lt;Alsto&gt;Although it is a little far from here, there is
 a nearby guild you can call on for help.
 Until then, I'll be waiting.</t>
   </si>
@@ -292,7 +292,7 @@
 あまり無茶はするな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;That's it.
+    <t>\n&lt;Alsto&gt;That's it.
 Be careful, \n[1].
 Don't do anything rash.</t>
   </si>
@@ -300,7 +300,7 @@
     <t>\n&lt;アルス&gt;ぐぅ～・・・・（腹の鳴る音）</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;*Gurgle...* (You can hear their belly rumble)</t>
+    <t>\n&lt;Alsto&gt;*Gurgle...* (You can hear their belly rumble)</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;あにき、お腹鳴ってるよ。
@@ -315,7 +315,7 @@
 余裕があったらでいいぞ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I'm...fine.
+    <t>\n&lt;Alsto&gt;I'm...fine.
 There is no need to rush yourself for me.</t>
   </si>
   <si>
@@ -324,7 +324,7 @@
 まぁ、ある意味チャンスだけど。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;That was kind of weird wasn't it?
+    <t>\n&lt;Meria&gt;That was kind of weird wasn't it?
 An escape game...
 Well, this could be a big chance for us though.</t>
   </si>
@@ -334,7 +334,7 @@
 あにき、頑張れ！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;You might be able to look for some way out
+    <t>\n&lt;Meria&gt;You might be able to look for some way out
 while those three idiots are distracted!
 Do your best, Alsy!</t>
   </si>
@@ -342,7 +342,7 @@
     <t>\n&lt;ロメリア&gt;ぐぅ～・・・（お腹の鳴る音）</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;*Groan...* (You can hear their stomach growling)</t>
+    <t>\n&lt;Meria&gt;*Groan...* (You can hear their stomach growling)</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あ、ごめん。
@@ -350,7 +350,7 @@
 お、お腹空きすぎて・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;Ah, sorry about that.
+    <t>\n&lt;Meria&gt;Ah, sorry about that.
 Could I ask you to get something to eat when you go?
 M-My stomach is killing me...</t>
   </si>
@@ -369,7 +369,7 @@
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
-    <t>Sanity levels can be recovered by finding snacks and sharing them with Als.
+    <t>Sanity levels can be recovered by finding snacks and sharing them with Alsto.
 Your current sanity can be checked by using the Hand Mirror in your items list.
 (Sanity is initially set to 10)</t>
   </si>
@@ -378,7 +378,7 @@
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
-    <t>Sanity levels can be recovered by finding snacks and sharing them with Romelia.
+    <t>Sanity levels can be recovered by finding snacks and sharing them with Meria.
 Your current sanity can be checked by using the Hand Mirror in your items list.
 (Sanity is initially set to 10)</t>
   </si>
@@ -388,12 +388,15 @@
 こじ開けるんだけどなぁ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;うーん。
-俺がゴリラだったらこんな檻ぐらい
-こじ開けるんだけどなぁ。</t>
+    <t>\n&lt;Alsto&gt;Hmm.
+If I were a gorilla, prying open a cage such as
+this would be easy.</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;動物園のゴリラは檻に入れられてるから。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Don't they keep gorillas in cages at the zoo...?</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;見つからないように気を付けて行け。
@@ -401,9 +404,9 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;見つからないように気を付けて行け。
-おそらく正面玄関は鍵がかけられて使えないだろう。
-脱出経路を探すんだ。</t>
+    <t>\n&lt;Alsto&gt;Take care that you aren't spotted.
+I'm guessing the front door will likely be locked and unusable.
+Search for another way out.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;いいか\n[1]。
@@ -411,13 +414,18 @@
 俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;いいか\n[1]。
-AlsトRomeliaの花言葉は『未来への憧れ』だ。
-俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
+    <t>\n&lt;Alsto&gt;Listen up, \n[1].
+The flower Alstroemeria symbolizes, "to look to the future."
+We have to get out of here no matter what. Hold that belief dear.</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;うん。ありがとあにき。
 でもそれ恥ずかしいから外で言わないでね。</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Yeah. Thanks, Alsy.
+But never say that in front of anyone,
+it's a bit embarrassing.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あにき。頼りにしてる。
@@ -425,9 +433,9 @@
 なるべく見つからないように、こっそりね。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あにき。頼りにしてる。
-頑張って。
-なるべく見つからないように、こっそりね。</t>
+    <t>\n&lt;Meria&gt;I'm counting on you, Alsy.
+Good luck.
+Sneak around carefully so you don't get spotted okay?</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;アルストロメリアの花言葉は『未来への憧れ』。
@@ -435,9 +443,9 @@
 あにきがいてくれて良かった。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;AlsトRomeliaの花言葉は『未来への憧れ』。
-私たちならきっと、上手く行くよ。
-あにきがいてくれて良かった。</t>
+    <t>\n&lt;Meria&gt;Alstroemeria means, "to look to the future" in the language of flowers.
+I'm sure both of us will end up just fine!
+I'm glad you're here with me.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;ふたりでひとつみたいな名前、
@@ -445,9 +453,9 @@
 でも嫌じゃなかったよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;ふたりでひとつみたいな名前、
-今まで大分恥ずかしい思いしたけどね。
-でも嫌じゃなかったよ。</t>
+    <t>\n&lt;Meria&gt;I was really embarrassed that we got a name
+like that you know, but now...
+I don't think it's so bad.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;しょうがないことかもしれないけど、
@@ -455,34 +463,43 @@
 魔物なんだからね。化け物だよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;しょうがないことかもしれないけど、
-あんまり淫魔相手にえっちなこと考えないでよ？
-魔物なんだからね。化け物だよ。</t>
+    <t>\n&lt;Meria&gt;I guess there's no way around this but...
+Try not to think too much about doing lewd things with those succubi, OK?
+They're demons after all right? Monsters!</t>
   </si>
   <si>
     <t>\C[3]戦わずに帰る</t>
   </si>
   <si>
+    <t>\C[3]Leave without fighting</t>
+  </si>
+  <si>
     <t>戦いに行く</t>
   </si>
   <si>
+    <t>Go and fight</t>
+  </si>
+  <si>
     <t>鉄格子の鍵を使った！</t>
+  </si>
+  <si>
+    <t>Used the Prison Key!</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;鍵・・・！！
 \n[1]！！よくやった！！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;鍵・・・！！
-\n[1]！！よくやった！！</t>
+    <t>\n&lt;Alsto&gt;The key...!
+\n[1]!! You did it!!</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;開いた！！
 あにき！ありがとう！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;開いた！！
-あにき！ありがとう！</t>
+    <t>\n&lt;Meria&gt;It opened!!
+Alsy! Thank you!</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;\n[1]・・・！
@@ -490,9 +507,9 @@
 逃げよう！</t>
   </si>
   <si>
-    <t>\n&lt;Ako&gt;\n[1]・・・！
-サンタがロープ持ってきてくれたよ！
-逃げよう！</t>
+    <t>\n&lt;Ako&gt;\n[1]...!
+Santa brought a rope!
+Lets get outta here!</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;あと少しなんだな？
@@ -500,9 +517,9 @@
 お前は強い女だな。兄として鼻が高いぜ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;あと少しなんだな？
-分かった。信じて待つ。
-お前は強い女だな。兄として鼻が高いぜ。</t>
+    <t>\n&lt;Alsto&gt;Just a little further now right?
+Alright. I have faith in you.
+You're a grown lady now. I'm proud to be your brother.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;戦って来るんだね。
@@ -510,9 +527,9 @@
 待ってる。あにき。大好きだよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;戦って来るんだね。
-分かった。
-待ってる。あにき。大好きだよ。</t>
+    <t>\n&lt;Meria&gt;So you're going to fight huh?
+Got it. I'll be waiting for you.
+I love you Alsy!</t>
   </si>
   <si>
     <t>EV004</t>
@@ -542,7 +559,7 @@
 ただの屍のようだ・・・</t>
   </si>
   <si>
-    <t>There is no response...
+    <t>There's no response...
 It seems to be just a dead body...</t>
   </si>
   <si>
@@ -553,7 +570,8 @@
 兄貴までこんなことになって・・・</t>
   </si>
   <si>
-    <t>\n&lt;ロメリア&gt;ごめんね。</t>
+    <t>\n&lt;Meria&gt;I'm really sorry.
+I even got my brother dragged into this...</t>
   </si>
   <si>
     <t>気にするな</t>
@@ -581,21 +599,37 @@
 お腹ぺこぺこ。</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;こんな時に悪いんだけど
+何か食べるものあったら持ってきてくれない？お腹ぺこぺこ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;すまん。
 まさか相手が3人組だとは・・・
 ミイラ取りがミイラになったな。</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;すまん。
+まさか相手が3人組だとは・・・ミイラ取りがミイラになったな。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;もしこの館から逃げられるチャンスがあるなら
 お前ひとりでも迷わず逃げるんだぞ。
 いいな？</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;もしこの館から逃げられるチャンスがあるなら
+お前ひとりでも迷わず逃げるんだぞ。いいな？</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;あとまぁ、悪いけど
 何か食い物があったら持ってきてくれないか？
 腹が減った・・・</t>
   </si>
   <si>
+    <t>\n&lt;アルス&gt;あとまぁ、悪いけど
+何か食い物があったら持ってきてくれないか？腹が減った・・・</t>
+  </si>
+  <si>
     <t>ポップアップ無効化</t>
   </si>
   <si>
@@ -822,7 +856,7 @@
 だい・・・うぶ・・・</t>
   </si>
   <si>
-    <t>Als...als...
+    <t>Alsto...Alsto...
 are...alright...</t>
   </si>
   <si>
@@ -837,7 +871,7 @@
     <t>\n&lt;アルス&gt;こっちだ！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Over here!</t>
+    <t>\n&lt;Alsto&gt;Over here!</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;こっちこっち！</t>
@@ -971,7 +1005,7 @@
 なんとか生きてるみたいだな。良かった・・・</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Are you OK?
+    <t>\n&lt;Alsto&gt;Are you OK?
 You weren't replying and I was worried.
 You're somehow still alive. I'm so glad...</t>
   </si>
@@ -980,7 +1014,7 @@
 よくも妹を酷い目に・・・</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Those guys...
+    <t>\n&lt;Alsto&gt;Those guys...
 How dare they do such a thing to my sister...</t>
   </si>
   <si>
@@ -1001,7 +1035,7 @@
 お前もサキュバスハンターなら気にするな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I see...
+    <t>\n&lt;Alsto&gt;I see...
 Well, it happens. As long as you're a succubus hunter
 you've got nothing to fear.</t>
   </si>
@@ -1011,7 +1045,7 @@
 良かったな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;It's better than being converted to their side I'd say.
+    <t>\n&lt;Alsto&gt;It's better than being converted to their side I'd say.
 Having something like a dick is nothing.
 I'm glad you're okay.</t>
   </si>
@@ -1026,7 +1060,7 @@
 丈夫に産んでくれたおかんに感謝しなきゃな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I'm fine so far as well.
+    <t>\n&lt;Alsto&gt;I'm fine so far as well.
 Mother did good job raising such a strong child.</t>
   </si>
   <si>
@@ -1035,7 +1069,7 @@
 ミイラ取りがミイラとはまさにこのことだぜ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I had come to save you but ended up
+    <t>\n&lt;Alsto&gt;I had come to save you but ended up
 getting caught myself...
 Those who plunder mummies become mummies eh?</t>
   </si>
@@ -1045,7 +1079,7 @@
 \n[1]、何か使えるものはないか？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;We've got to get out of here before we get dried up
+    <t>\n&lt;Alsto&gt;We've got to get out of here before we get dried up
 and really do become mummies though...
 \n[1], can you see anything we can use?</t>
   </si>
@@ -1058,6 +1092,10 @@
   <si>
     <t>はぅぅ・・・頭がくらくらする・・・
 えっちなことしか考えられないよぉ・・・</t>
+  </si>
+  <si>
+    <t>Haah... I feel so light headed...
+My mind is swirling with sexy thoughts...</t>
   </si>
   <si>
     <t>MP_SET_MOVIE ロメリア立ち絵アニメ基本</t>
@@ -1068,10 +1106,18 @@
 ふぅ・・・気を付けないと・・・</t>
   </si>
   <si>
+    <t>Ahh... Not good...
+If I don't...contain my sexual urges soon...haah...</t>
+  </si>
+  <si>
     <t>囚人服まで着せられるなんて・・・
 屈辱・・・！</t>
   </si>
   <si>
+    <t>To be forced to wear a prison uniform like this...
+How disgraceful...!</t>
+  </si>
+  <si>
     <t>MP_SET_MOVIE アルス立ち絵アニメ基本3</t>
   </si>
   <si>
@@ -1079,10 +1125,18 @@
 もっと・・・搾り取られたい・・・</t>
   </si>
   <si>
+    <t>Ahh...d-dammit...
+I-It would feel soo good to me milked...r-right now...</t>
+  </si>
+  <si>
     <t>ふぅ・・・落ち着け・・・
 惑わされるな・・・</t>
   </si>
   <si>
+    <t>Hah...I have to calm down...
+I won't be swayed...</t>
+  </si>
+  <si>
     <t>囚人服を着せられるとは・・・
 屈辱だ・・・</t>
   </si>
@@ -1096,7 +1150,7 @@
   </si>
   <si>
     <t>※Here, you can set if main character is seen during events.
-(You may also change this in the options menu at any time.)</t>
+(You may Alstoo change this in the options menu at any time.)</t>
   </si>
   <si>
     <t>立ち絵アニメをON</t>
@@ -1189,7 +1243,7 @@
 （無事に隠れられたようだな・・・）</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;You're too late.
+    <t>\n&lt;Alsto&gt;You're too late.
 I'm afraid they're already far away from here now.
 (It seems they were able to hide safely...)</t>
   </si>
@@ -1199,7 +1253,7 @@
 ひょっとして逃げられたのー？</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;No clue what so ever.
+    <t>\n&lt;Meria&gt;No clue what so ever.
 I was lying down over here.
 Did they escape or something-?</t>
   </si>
@@ -1209,7 +1263,7 @@
 （上手く隠れたみたい・・・良かった。）</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;That's so good to hear-
+    <t>\n&lt;Meria&gt;That's so good to hear-
 Soon I'll get out too- Teehee!
 (They must have hid really well...thank goodness.)</t>
   </si>
@@ -1322,7 +1376,7 @@
     <t>\n&lt;アルス&gt;なんだと！？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;T-This was your plan all along!?</t>
+    <t>\n&lt;Alsto&gt;T-This was your plan all along!?</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;（なんで信じてるのー！）</t>
@@ -1334,7 +1388,7 @@
     <t>\n&lt;ロメリア&gt;鍵掛け忘れたんなら素直にそう言えば</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;If you forgot to lock the door,
+    <t>\n&lt;Meria&gt;If you forgot to lock the door,
 you could just say so.</t>
   </si>
   <si>
@@ -1418,15 +1472,29 @@
     <t>この水を全部飲み干して桶を被れば・・・！！</t>
   </si>
   <si>
+    <t>Maybe if I drink all this water and put the bucket on my head...!!</t>
+  </si>
+  <si>
     <t>バカなことを考えてる場合じゃない！</t>
+  </si>
+  <si>
+    <t>This is no time to joke around!</t>
   </si>
   <si>
     <t>平べったくて背中が痛い布団・・・
 低い枕・・・</t>
   </si>
   <si>
+    <t>These futon cushions are quite thin...
+Standing up straight on one would hurt your back...</t>
+  </si>
+  <si>
     <t>布団の中に隠れる・・・？
 普通に寝てるだけだと思われて終わりだ！</t>
+  </si>
+  <si>
+    <t>Hide under the covers...?
+They'd just think I'm sleeping in there and I'd be finished!</t>
   </si>
   <si>
     <t>少し休憩しようかな・・・
@@ -1478,11 +1546,19 @@
 肌に触れると火傷のような症状が出ます。何より臭い！</t>
   </si>
   <si>
+    <t>植物の分際で動きます。
+近づくと唾を吐きかけてくるので注意してください。肌に触れると火傷のような症状が出ます。何より臭い！</t>
+  </si>
+  <si>
     <t>餌は何でもいいです。何でも喜んで食べます。
 （※腕も食べられるので手でやらないこと）
 骨は消化できないので注意。まとめて吐き出します。</t>
   </si>
   <si>
+    <t>餌は何でもいいです。何でも喜んで食べます。
+（※腕も食べられるので手でやらないこと）骨は消化できないので注意。まとめて吐き出します。</t>
+  </si>
+  <si>
     <t>植物系の魔物の例に漏れず、
 炎属性の攻撃に極端に弱い模様。</t>
   </si>
@@ -1492,6 +1568,10 @@
 予備はあるので殺して取り出す必要はありません。</t>
   </si>
   <si>
+    <t>追伸：
+食欲旺盛過ぎて、メイドが鍵を食べられてしまったそうです。予備はあるので殺して取り出す必要はありません。</t>
+  </si>
+  <si>
     <t>捕まえシィナ</t>
   </si>
   <si>
@@ -1512,6 +1592,10 @@
 身体に教えてあげて。</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;もうひとり捕まえてるし、そいつ好きなだけ搾っていいわよ。
+私たちから逃げようとしたらどうなるか、身体に教えてあげて。</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;搾精処刑にゃぁー♥
 ほら早くちんぽ立たせろー♥</t>
   </si>
@@ -1528,7 +1612,7 @@
     <t>まずはロメリアに話しかけよう・・・</t>
   </si>
   <si>
-    <t>I should speak with Romelia first...</t>
+    <t>I should speak with Meria first...</t>
   </si>
   <si>
     <t>EV022</t>
@@ -1538,23 +1622,43 @@
 随分と長い時間搾られていたようだ。</t>
   </si>
   <si>
+    <t>...
+It seems you were milked for quite a long time.</t>
+  </si>
+  <si>
     <t>リリーの日記</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
   </si>
   <si>
     <t>ライムの日記
 誘惑して脱獄</t>
   </si>
   <si>
+    <t>Lime's Dairy
+Prison Outbreak</t>
+  </si>
+  <si>
     <t>読んでみる</t>
   </si>
   <si>
+    <t>Read a little</t>
+  </si>
+  <si>
     <t>やめておく</t>
   </si>
   <si>
+    <t>Stop reading</t>
+  </si>
+  <si>
     <t>報告書</t>
   </si>
   <si>
     <t>もう何もない・・・</t>
+  </si>
+  <si>
+    <t>I can't go on...</t>
   </si>
   <si>
     <t>EV025</t>
@@ -1565,14 +1669,26 @@
 へへへ♥</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;あれで調子乗っちゃったよね。
+私だって淫魔に勝てるんだって。へへへ♥</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あにき、私のおっぱいでイっちゃったけどさ。
 淫魔が自滅するぐらいのアレだから、
 その、落ち込まないでねっていう・・・</t>
   </si>
   <si>
+    <t>\n&lt;ロメリア&gt;あにき、私のおっぱいでイっちゃったけどさ。
+淫魔が自滅するぐらいのアレだから、その、落ち込まないでねっていう・・・</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;いやマジなんの話だよ。
 ごめん。
 あにきが自信無くしちゃったらやだなって思っただけ。忘れて。</t>
+  </si>
+  <si>
+    <t>\n&lt;ロメリア&gt;いやマジなんの話だよ。
+ごめん。あにきが自信無くしちゃったらやだなって思っただけ。忘れて。</t>
   </si>
   <si>
     <t>EV027</t>
@@ -2609,1880 +2725,2006 @@
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="D75" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="D77" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>143</v>
+      </c>
+      <c r="D78" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>147</v>
+      </c>
+      <c r="D80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D107" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D112" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D113" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D115" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D117" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D118" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D119" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D120" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D121" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D122" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D123" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D124" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D125" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D126" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D127" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D128" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D129" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D130" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="D132" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+      <c r="D133" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>257</v>
+      </c>
+      <c r="D134" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>249</v>
+        <v>259</v>
+      </c>
+      <c r="D135" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="D136" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>262</v>
+      </c>
+      <c r="D137" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>252</v>
+        <v>264</v>
+      </c>
+      <c r="D138" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>253</v>
+        <v>265</v>
+      </c>
+      <c r="D139" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>267</v>
+      </c>
+      <c r="D140" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D142" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D143" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D144" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D145" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D146" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D147" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D148" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D150" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D151" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D153" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D154" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D155" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D156" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D157" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D158" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D159" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D161" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D162" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D163" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D164" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D165" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D166" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D167" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D168" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D169" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D170" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D171" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D172" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D173" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D174" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D175" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D176" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D177" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D178" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D179" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D180" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D181" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D182" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D183" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D184" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D185" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D187" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>347</v>
+        <v>361</v>
+      </c>
+      <c r="D188" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>348</v>
+        <v>363</v>
+      </c>
+      <c r="D189" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>349</v>
+        <v>365</v>
+      </c>
+      <c r="D190" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>350</v>
+        <v>367</v>
+      </c>
+      <c r="D191" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D192" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="D193" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D194" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D195" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C196" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D196" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C197" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D197" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>365</v>
+        <v>383</v>
+      </c>
+      <c r="D200" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>366</v>
+        <v>385</v>
+      </c>
+      <c r="D201" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>387</v>
+      </c>
+      <c r="D202" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>368</v>
+        <v>388</v>
+      </c>
+      <c r="D203" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>369</v>
+        <v>390</v>
+      </c>
+      <c r="D204" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>370</v>
+        <v>391</v>
+      </c>
+      <c r="D205" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>371</v>
+        <v>392</v>
+      </c>
+      <c r="D206" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>372</v>
+        <v>393</v>
+      </c>
+      <c r="D207" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>373</v>
+        <v>394</v>
+      </c>
+      <c r="D208" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>374</v>
+        <v>396</v>
+      </c>
+      <c r="D209" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>375</v>
+        <v>397</v>
+      </c>
+      <c r="D210" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="D211" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D212" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B213" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="D213" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>381</v>
+        <v>403</v>
+      </c>
+      <c r="D214" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>382</v>
+        <v>405</v>
+      </c>
+      <c r="D215" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>383</v>
+        <v>407</v>
+      </c>
+      <c r="D216" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>384</v>
+        <v>409</v>
+      </c>
+      <c r="D217" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>385</v>
+        <v>411</v>
+      </c>
+      <c r="D218" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>386</v>
+        <v>413</v>
+      </c>
+      <c r="D219" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>387</v>
+        <v>414</v>
+      </c>
+      <c r="D220" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B221" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="D221" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>389</v>
+        <v>417</v>
+      </c>
+      <c r="D222" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>390</v>
+        <v>419</v>
+      </c>
+      <c r="D223" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>391</v>
+        <v>421</v>
+      </c>
+      <c r="D224" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="B225" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="D225" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="B227" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="C227" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="D227" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="D228" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="D229" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="D230" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="B241" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="D241" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="B271" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D271" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D272" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="B280" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="D280" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D281" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="D289" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="D290" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="D291" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="D292" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="D293" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D294" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="D295" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="D296" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
   <si>
     <t>自動実行</t>
   </si>
@@ -361,26 +361,26 @@
   </si>
   <si>
     <t>\C[3]※Sanity Level Explaination:
-\C[0]If you are caught and milked, your mind can become lost in pleasure.
-During these events, your sanity level will change.</t>
+\C[0]If you are caught and milked, your mind can become lost in
+pleasure. During these events, your sanity level will change.</t>
   </si>
   <si>
     <t>SAN値はお菓子を見つけてアルスに渡すことで回復します。
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
-    <t>Sanity levels can be recovered by finding snacks and sharing them with Alsto.
-Your current sanity can be checked by using the Hand Mirror in your items list.
-(Sanity is initially set to 10)</t>
+    <t>Find snacks and share them with Alsto to recover sanity.
+Check your current sanity by using the Hand Mirror in your
+items list. (Sanity is initially set to 10)</t>
   </si>
   <si>
     <t>SAN値はお菓子を見つけてロメリアに渡すことで回復します。
 現在のSAN値はアイテムの手鏡で確認できます。（初期値10）</t>
   </si>
   <si>
-    <t>Sanity levels can be recovered by finding snacks and sharing them with Meria.
-Your current sanity can be checked by using the Hand Mirror in your items list.
-(Sanity is initially set to 10)</t>
+    <t>Find snacks and share them with Meria to recover sanity.
+Check your current sanity by using the Hand Mirror in your
+items list. (Sanity is initially set to 10)</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;うーん。
@@ -415,7 +415,7 @@
   </si>
   <si>
     <t>\n&lt;Alsto&gt;Listen up, \n[1].
-The flower Alstroemeria symbolizes, "to look to the future."
+The flower AlstroeMeria symbolizes, "to look to the future."
 We have to get out of here no matter what. Hold that belief dear.</t>
   </si>
   <si>
@@ -443,7 +443,7 @@
 あにきがいてくれて良かった。</t>
   </si>
   <si>
-    <t>\n&lt;Meria&gt;Alstroemeria means, "to look to the future" in the language of flowers.
+    <t>\n&lt;Meria&gt;AlstroeMeria means, "to look to the future" in the language of flowers.
 I'm sure both of us will end up just fine!
 I'm glad you're here with me.</t>
   </si>
@@ -667,6 +667,11 @@
   </si>
   <si>
     <t>\n&lt;Lime&gt;Mm♥ You've ejaculated 6 times now, haven't you?
+Are you gonna be okay after this? Hmm?
+You're not going to die are you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Mm♥ You've ejaculated 6 times now, haven't you?
 Are you gonna be ok-ay?
 You're not going to die are you?</t>
   </si>
@@ -877,10 +882,10 @@
     <t>\n&lt;ロメリア&gt;こっちこっち！</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt; This way!</t>
-  </si>
-  <si>
-    <t>\n&lt;Romeria&gt;This way!</t>
+    <t>\n&lt;Meria&gt; This way!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Over here!</t>
   </si>
   <si>
     <t>最初のイベ</t>
@@ -891,7 +896,7 @@
 随分と酷くヤラレチャッタみたいだけど・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;Alsy! You're finally up!
+    <t>\n&lt;Meria&gt;Alsy! You're finally up!
 Are you okay?
 You look like you've been beaten up pretty bad...</t>
   </si>
@@ -901,7 +906,7 @@
 あぁ、良かった・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;I've been calling you so many times that
+    <t>\n&lt;Meria&gt;I've been calling you so many times that
 I thought you were really dead...
 Oh, thank goodness...</t>
   </si>
@@ -911,7 +916,7 @@
 あにきまで捕まっちゃうなんて・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;Really sorry-
+    <t>\n&lt;Meria&gt;Really sorry-
 You came here to save me,
 but Alsy ended up getting caught instead...</t>
   </si>
@@ -919,7 +924,7 @@
     <t>\n&lt;ロメリア&gt;ごめんって言ってんじゃん。</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;I...I told you I was sorry!</t>
+    <t>\n&lt;Meria&gt;I...I told you I was sorry!</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;気にするよ。
@@ -927,7 +932,12 @@
 でも、ありがと。</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;You were worried,
+    <t>\n&lt;Meria&gt;You were worried,
+Haah...
+But, thanks.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;You were worried?
 Haah...
 But, thanks.</t>
   </si>
@@ -937,7 +947,7 @@
 こんなことになるなんて・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;Oogh...
+    <t>\n&lt;Meria&gt;Oogh...
 It was my subjugation request...
 But I never thought something like this would happen...</t>
   </si>
@@ -946,7 +956,7 @@
 淫魔に捕まっちゃうなんて、ハンター失格だよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;I've been nothing but trouble to you Alsy...
+    <t>\n&lt;Meria&gt;I've been nothing but trouble to you Alsy...
 And being captured by demons...I'm a failure as a hunter.</t>
   </si>
   <si>
@@ -967,7 +977,7 @@
 へこたれてちゃダメだよね。</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;You're right.
+    <t>\n&lt;Meria&gt;You're right.
 We have to get out of here, beat those guys up and return
 home. We can't sit idle and do nothing right?</t>
   </si>
@@ -977,7 +987,7 @@
 檻を開けられそうなものとか・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;Yeah...
+    <t>\n&lt;Meria&gt;Yeah...
 Is there anything here we can use?
 Like something to open the cage...</t>
   </si>
@@ -986,7 +996,7 @@
 淫魔に負けて吸い殺されなかっただけマシなのかも。</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;...you're right.
+    <t>\n&lt;Meria&gt;...you're right.
 I guess it's just as well they didn't drain me to death.</t>
   </si>
   <si>
@@ -995,7 +1005,7 @@
 なんとかしてここから出ないと・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romeria&gt;Yeah...
+    <t>\n&lt;Meria&gt;Yeah...
 Is there anything here we can use?
 We have to get out of here somehow...</t>
   </si>
@@ -1150,7 +1160,7 @@
   </si>
   <si>
     <t>※Here, you can set if main character is seen during events.
-(You may Alstoo change this in the options menu at any time.)</t>
+(You may also change this in the options menu at any time.)</t>
   </si>
   <si>
     <t>立ち絵アニメをON</t>
@@ -1344,7 +1354,7 @@
 そして、まんまと引っかかったわね。</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;This was all just an elaborate ruse to get you
+    <t>\n&lt;Lily&gt;This was all just an elaborate ruse to get them
 to play my "Timewasting Escape Game!"
 And they fell right for it-</t>
   </si>
@@ -1451,7 +1461,7 @@
     <t>\n&lt;シィナ&gt;仕切んな。</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt;Don't get in the way.</t>
+    <t>\n&lt;Shina&gt;Don't try to stop us.</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;（楽しそうなことになってきたぞー・・・）</t>
@@ -1478,15 +1488,15 @@
     <t>バカなことを考えてる場合じゃない！</t>
   </si>
   <si>
-    <t>This is no time to joke around!</t>
+    <t>...This is no time to joke around!</t>
   </si>
   <si>
     <t>平べったくて背中が痛い布団・・・
 低い枕・・・</t>
   </si>
   <si>
-    <t>These futon cushions are quite thin...
-Standing up straight on one would hurt your back...</t>
+    <t>The futon cushions here are quite thin...
+Lying flat on this would really hurt your back...</t>
   </si>
   <si>
     <t>布団の中に隠れる・・・？
@@ -1539,6 +1549,10 @@
   </si>
   <si>
     <t>報告書：魔物について（マンドラゴラ）</t>
+  </si>
+  <si>
+    <t>Record Log:
+About Demons (Mandragora)</t>
   </si>
   <si>
     <t>植物の分際で動きます。
@@ -1546,8 +1560,9 @@
 肌に触れると火傷のような症状が出ます。何より臭い！</t>
   </si>
   <si>
-    <t>植物の分際で動きます。
-近づくと唾を吐きかけてくるので注意してください。肌に触れると火傷のような症状が出ます。何より臭い！</t>
+    <t>It's movements are limited from being a plant. Note they may
+spit saliva if they're approached. This will give inflict
+burns if it touches the skin. Not to mention the smell!</t>
   </si>
   <si>
     <t>餌は何でもいいです。何でも喜んで食べます。
@@ -1555,12 +1570,17 @@
 骨は消化できないので注意。まとめて吐き出します。</t>
   </si>
   <si>
-    <t>餌は何でもいいです。何でも喜んで食べます。
-（※腕も食べられるので手でやらないこと）骨は消化できないので注意。まとめて吐き出します。</t>
+    <t>Any food will do, and will happily eat just about anything.
+(※Do donot give them your arm because they can eat it)
+It cannot digest bones however, so they will spit it out.</t>
   </si>
   <si>
     <t>植物系の魔物の例に漏れず、
 炎属性の攻撃に極端に弱い模様。</t>
+  </si>
+  <si>
+    <t>As typical of plant-based demons, they seem to be
+highly vulnerable to fire based attacks.</t>
   </si>
   <si>
     <t>追伸：
@@ -1568,23 +1588,39 @@
 予備はあるので殺して取り出す必要はありません。</t>
   </si>
   <si>
-    <t>追伸：
-食欲旺盛過ぎて、メイドが鍵を食べられてしまったそうです。予備はあるので殺して取り出す必要はありません。</t>
+    <t>PS: Due to the extreme appetite, they seem to have eaten the
+key from the housemaid. But because we have a spare, there
+is no need to kill them to take it out.</t>
   </si>
   <si>
     <t>捕まえシィナ</t>
+  </si>
+  <si>
+    <t>Shina Capture</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;に"ゃ"っ！！
 脱獄囚ゲットにゃ！！</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Gotcha!!
+Escaped prisoner capture complete-nya!!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;やっぱり鍵忘れてたみたい。
 間に合って良かったー。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;I guess I forgot to lock it after all.
+I'm glad we made it in time-.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;あいたたた・・・
 ハシゴにがてー・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ow ow ow...
+Ladders suck...</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;もうひとり捕まえてるし、そいつ好きなだけ搾っていいわよ。
@@ -1592,14 +1628,19 @@
 身体に教えてあげて。</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;もうひとり捕まえてるし、そいつ好きなだけ搾っていいわよ。
-私たちから逃げようとしたらどうなるか、身体に教えてあげて。</t>
+    <t>\n&lt;Lily&gt;We've caught one more person, and we can squeeze them as much as
+we like. Let's teach their body exactly what happens if they try
+to run away from us.</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;搾精処刑にゃぁー♥
 ほら早くちんぽ立たせろー♥</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Semen squeezing punishment time-nya♥
+Hora- Get hard quickly now-♥</t>
+  </si>
+  <si>
     <t>通行止め</t>
   </si>
   <si>
@@ -1655,10 +1696,13 @@
     <t>報告書</t>
   </si>
   <si>
+    <t>Report</t>
+  </si>
+  <si>
     <t>もう何もない・・・</t>
   </si>
   <si>
-    <t>I can't go on...</t>
+    <t>I've got no time for that...</t>
   </si>
   <si>
     <t>EV025</t>
@@ -1777,6 +1821,10 @@
 脱出ゲームにゃん。</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;んにゃ？
+なんで鍵閉めるにゃ？脱出ゲームにゃん。</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;えっ・・・？</t>
   </si>
   <si>
@@ -1791,6 +1839,9 @@
   </si>
   <si>
     <t>\n&lt;ライム&gt;（引っ込みがつかないのね・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;（引っ込みがつかないのね・・・）</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ゲームはまだまだこれからよ。
@@ -1798,6 +1849,10 @@
 身も心も精奴隷にしてやりましょ。</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;ゲームはまだまだこれからよ。
+さぁ、コイツの心を折りまくって身も心も精奴隷にしてやりましょ。</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;次はどーやって搾ってやろうかにゃぁ。
 楽しみだし。</t>
   </si>
@@ -1807,20 +1862,37 @@
 あははは！</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;ふふ♥
+抵抗する気力を全て搾り尽くしてやりましょ。あははは！</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;にゃはははー♥</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;くすくす♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;くすくす♥</t>
   </si>
   <si>
     <t>※イージーモードの設定です。
 オプションからいつでも変更可能です。</t>
   </si>
   <si>
+    <t>※You can toggle settings here to make the game easier.
+You can change these in the options menu anytime.</t>
+  </si>
+  <si>
     <t>アクションイージー</t>
   </si>
   <si>
+    <t>Easier Actions</t>
+  </si>
+  <si>
     <t>探索ヒントモード</t>
+  </si>
+  <si>
+    <t>Hint Mode</t>
   </si>
   <si>
     <t>アクション要素を簡単にします。
@@ -1828,19 +1900,39 @@
 ・タイミングバー、時間制限の難易度低下　など</t>
   </si>
   <si>
+    <t>Use this to make any interactive elements easier. This includes-
+Increased EXP gain, decreased damage taken, more lenient reaction
+times, etc.</t>
+  </si>
+  <si>
     <t>アクションイージーON</t>
   </si>
   <si>
+    <t>Easier Actions ON</t>
+  </si>
+  <si>
     <t>アクションイージーOFF</t>
   </si>
   <si>
+    <t>Easier Actions OFF</t>
+  </si>
+  <si>
     <t>そのまま</t>
   </si>
   <si>
+    <t>Keep as is</t>
+  </si>
+  <si>
     <t>アクションイージーをONにしました。</t>
   </si>
   <si>
+    <t>Easier Actions was turned ON.</t>
+  </si>
+  <si>
     <t>アクションイージーをOFFにしました。</t>
+  </si>
+  <si>
+    <t>Easier Actions was turned OFF.</t>
   </si>
   <si>
     <t>進行に必要なものを探索する時にヒントが出ます。
@@ -1848,16 +1940,33 @@
 ・詰まりやすい場所は答えが見られるモヤモヤが出ます。</t>
   </si>
   <si>
+    <t>Hints will appear to assist you if you get stuck. 
+- A blue circle will appear in front of important objects
+- Tricky to progress areas will have easily visible solutions.</t>
+  </si>
+  <si>
     <t>探索ヒントモードON</t>
   </si>
   <si>
+    <t>Turn Hint Mode ON</t>
+  </si>
+  <si>
     <t>探索ヒントモードOFF</t>
   </si>
   <si>
+    <t>Turn Hint Mode OFF</t>
+  </si>
+  <si>
     <t>探索ヒントをONにしました。</t>
   </si>
   <si>
+    <t>Hint Mode was turned ON.</t>
+  </si>
+  <si>
     <t>探索ヒントをOFFにしました。</t>
+  </si>
+  <si>
+    <t>Hint Mode was turned OFF.</t>
   </si>
   <si>
     <t>引っかけ場所</t>
@@ -1969,6 +2078,9 @@
   </si>
   <si>
     <t>説明</t>
+  </si>
+  <si>
+    <t>More info</t>
   </si>
   <si>
     <t>捕食描写を見るようにしました。</t>
@@ -3034,1697 +3146,1784 @@
         <v>155</v>
       </c>
       <c r="D84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D102" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D114" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D115" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D117" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D126" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D130" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D143" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D144" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D150" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D151" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D152" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D153" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D154" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D155" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D157" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D158" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D160" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D161" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D163" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D164" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D165" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D166" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D167" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D169" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D170" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D171" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D172" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D173" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D174" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D175" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D176" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D177" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D178" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D179" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D180" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D181" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D182" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D183" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D184" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D185" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D187" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D188" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D189" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D190" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D191" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D192" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D193" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D194" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C195" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D195" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D196" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C197" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D197" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="D199" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D200" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D201" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D202" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D203" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D204" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D205" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D207" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D208" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D209" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>397</v>
-      </c>
-      <c r="D210" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D211" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D212" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B213" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D213" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D214" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D215" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D216" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D217" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D218" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D219" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D220" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B221" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D221" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D222" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D223" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D224" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B225" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D225" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B227" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C227" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D227" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D228" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D229" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D230" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D241" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>445</v>
+        <v>455</v>
+      </c>
+      <c r="D242" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>446</v>
+        <v>456</v>
+      </c>
+      <c r="D243" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>447</v>
+        <v>458</v>
+      </c>
+      <c r="D244" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>448</v>
+        <v>459</v>
+      </c>
+      <c r="D245" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>449</v>
+        <v>460</v>
+      </c>
+      <c r="D246" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>450</v>
+        <v>461</v>
+      </c>
+      <c r="D247" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>451</v>
+        <v>462</v>
+      </c>
+      <c r="D248" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>452</v>
+        <v>464</v>
+      </c>
+      <c r="D249" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>453</v>
+        <v>466</v>
+      </c>
+      <c r="D250" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>454</v>
+        <v>467</v>
+      </c>
+      <c r="D251" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>455</v>
+        <v>469</v>
+      </c>
+      <c r="D252" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>456</v>
+        <v>470</v>
+      </c>
+      <c r="D253" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>457</v>
+        <v>472</v>
+      </c>
+      <c r="D254" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>458</v>
+        <v>474</v>
+      </c>
+      <c r="D255" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>459</v>
+        <v>476</v>
+      </c>
+      <c r="D256" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>460</v>
+        <v>478</v>
+      </c>
+      <c r="D257" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>461</v>
+        <v>480</v>
+      </c>
+      <c r="D258" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>462</v>
+        <v>482</v>
+      </c>
+      <c r="D259" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>463</v>
+        <v>484</v>
+      </c>
+      <c r="D260" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>464</v>
+        <v>486</v>
+      </c>
+      <c r="D261" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>465</v>
+        <v>488</v>
+      </c>
+      <c r="D262" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>466</v>
+        <v>490</v>
+      </c>
+      <c r="D263" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>467</v>
+        <v>492</v>
+      </c>
+      <c r="D264" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>468</v>
+        <v>494</v>
+      </c>
+      <c r="D265" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>469</v>
+        <v>496</v>
+      </c>
+      <c r="D266" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>470</v>
+        <v>498</v>
+      </c>
+      <c r="D267" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>471</v>
+        <v>500</v>
+      </c>
+      <c r="D268" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>472</v>
+        <v>501</v>
+      </c>
+      <c r="D269" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>473</v>
+        <v>502</v>
+      </c>
+      <c r="D270" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="B271" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="D271" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D272" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="B280" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="D280" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="D281" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="D289" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="D290" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="D291" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="D292" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="D293" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D294" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="D295" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D296" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -415,7 +415,7 @@
   </si>
   <si>
     <t>\n&lt;Alsto&gt;Listen up, \n[1].
-The flower AlstroeMeria symbolizes, "to look to the future."
+The flower Alstroemeria symbolizes, "to look to the future."
 We have to get out of here no matter what. Hold that belief dear.</t>
   </si>
   <si>
@@ -443,7 +443,7 @@
 あにきがいてくれて良かった。</t>
   </si>
   <si>
-    <t>\n&lt;Meria&gt;AlstroeMeria means, "to look to the future" in the language of flowers.
+    <t>\n&lt;Meria&gt;Alstroemeria means, "to look to the future" in the language of flowers.
 I'm sure both of us will end up just fine!
 I'm glad you're here with me.</t>
   </si>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
   <si>
     <t>自動実行</t>
   </si>
@@ -113,10 +113,6 @@
 どうやって出たんだ！？</t>
   </si>
   <si>
-    <t xml:space="preserve">
-How did you get out!?</t>
-  </si>
-  <si>
     <t>\n&lt;Alsto&gt;Wha, you...!
 How did you get out!?</t>
   </si>
@@ -552,17 +548,6 @@
 Did those guys really...?</t>
   </si>
   <si>
-    <t>しかばね</t>
-  </si>
-  <si>
-    <t>返事がない・・・
-ただの屍のようだ・・・</t>
-  </si>
-  <si>
-    <t>There's no response...
-It seems to be just a dead body...</t>
-  </si>
-  <si>
     <t>ロメ/アル</t>
   </si>
   <si>
@@ -636,16 +621,22 @@
     <t>ポップアップ有効化</t>
   </si>
   <si>
+    <t>0ﾌｨﾘ 1ﾏｰｶﾞﾚ 2ｻｷｭ 3ｱｲﾘ 4ﾕｲﾈ 5ｼｬﾙ 6ﾁｭｰ 7ﾏｵ8ﾘﾘｽ 9ﾌｪﾗ高 10ﾌｪﾗ中 
+11ﾌｪﾗ低 12ﾄﾙﾃ 13ｷﾙｼｭ 14ｼｰﾌﾟ15ｼｨﾅ 16ｴｲﾐｰ 17ｷｴﾘ 18ﾉﾉ 19ﾘﾘﾌｪﾗ
+20ﾅｰｽ 21ﾘｯﾌﾟｽ 22ﾎﾟﾘｰ 23ｻｷｭﾊﾞｽ 24ﾛｰｽﾞ 25ｳｨｯﾁ 26ﾋｭﾌﾟﾉ 27ｱﾘｽ
+28ｽﾗｲﾑ 29夢喰い 30ﾛﾘA 31ﾛﾘB 32ﾛﾘC 33ﾌﾟﾘｽﾞﾏ 34ﾘﾘに 35ﾉﾉｷｽ
+36ｼﾙｷ 37ｴﾙﾌ 38ﾀｺ 39ｴﾗｯﾀ　40普通A 41普通B 43普通C 44ｱﾆﾏ
+45ﾗﾐｱ 47ﾙﾅ 48猫 49ﾕｲﾈ 50ﾏｷｻ 51ｳｫﾙﾌ 52ｽﾗﾐｰ 53ﾗｲﾑ 54ｱｰｺ</t>
+  </si>
+  <si>
+    <t>55ﾘﾘｰ</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あはっ♥またイったわコイツ♥
 ほら雑魚ちんぽ。
 気持ちよくしてくれてありがとうございます、は？</t>
   </si>
   <si>
-    <t>\n&lt;Lily&gt;Aha♥ This person came again♥
-Come on small-fry penis.
-Thank you very much for pleasuring us, okay?</t>
-  </si>
-  <si>
     <t>\n&lt;Lily&gt;Aha♥ Look at that, they came again♥
 Look at this weak little penis~
 It really does love to be pleasured, doesn't it?</t>
@@ -667,11 +658,6 @@
   </si>
   <si>
     <t>\n&lt;Lime&gt;Mm♥ You've ejaculated 6 times now, haven't you?
-Are you gonna be okay after this? Hmm?
-You're not going to die are you?</t>
-  </si>
-  <si>
-    <t>\n&lt;Lime&gt;Mm♥ You've ejaculated 6 times now, haven't you?
 Are you gonna be ok-ay?
 You're not going to die are you?</t>
   </si>
@@ -681,11 +667,6 @@
 リリー代われにゃ！次アタシにゃ！</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt;You're overdoing it big tits.
-By the time it's my turn they'll be dead-nya.
-Come on Lily-nya! My turn next-nya!</t>
-  </si>
-  <si>
     <t>\n&lt;Shina&gt;You're overdoing it big tits...
 By the time it's my turn they'll be dead-nya.
 Come on Lily-nya! My turn next-nya!</t>
@@ -704,11 +685,6 @@
 勝手に死んだら殺すにゃ。</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt; Huuh?
-I was next-nya...
-If you die on your own, I'll kill you-nya.</t>
-  </si>
-  <si>
     <t>\n&lt;Shina&gt;Huuh?
 I was next-nya...
 If you kill him, I'll kill you-nya.</t>
@@ -759,11 +735,6 @@
 手がべっとべとにゃ。</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt;It feels really slimy.
-Nyaha-
-My hand is all slippery-nya.</t>
-  </si>
-  <si>
     <t>\n&lt;Shina&gt;It feels all slimy too. Nyaha!
 My hand is all slippery-nya.</t>
   </si>
@@ -799,11 +770,6 @@
 気絶しちゃった。</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;Paah...
-Sorry. I think I sucked too hard.
-And now they fainted.</t>
-  </si>
-  <si>
     <t>\n&lt;Lime&gt;Pahh...
 Sorry. I think I sucked too hard.
 And now they fainted.</t>
@@ -814,10 +780,6 @@
 アタシだったのにゃぁー！！</t>
   </si>
   <si>
-    <t>\n&lt;Shina&gt;Nyaa!!
-I was next-nya!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">\n&lt;Shina&gt;Nyaa!!
 I was next-nya!!
 </t>
@@ -882,9 +844,6 @@
     <t>\n&lt;ロメリア&gt;こっちこっち！</t>
   </si>
   <si>
-    <t>\n&lt;Meria&gt; This way!</t>
-  </si>
-  <si>
     <t>\n&lt;Meria&gt;Over here!</t>
   </si>
   <si>
@@ -932,11 +891,6 @@
 でも、ありがと。</t>
   </si>
   <si>
-    <t>\n&lt;Meria&gt;You were worried,
-Haah...
-But, thanks.</t>
-  </si>
-  <si>
     <t>\n&lt;Meria&gt;You were worried?
 Haah...
 But, thanks.</t>
@@ -1561,7 +1515,7 @@
   </si>
   <si>
     <t>It's movements are limited from being a plant. Note they may
-spit saliva if they're approached. This will give inflict
+spit saliva if they're approached. This will inflict
 burns if it touches the skin. Not to mention the smell!</t>
   </si>
   <si>
@@ -1571,7 +1525,7 @@
   </si>
   <si>
     <t>Any food will do, and will happily eat just about anything.
-(※Do donot give them your arm because they can eat it)
+(※Do not give them your arm because they will eat it.)
 It cannot digest bones however, so they will spit it out.</t>
   </si>
   <si>
@@ -1744,9 +1698,6 @@
     <t>手鏡</t>
   </si>
   <si>
-    <t>hand mirror</t>
-  </si>
-  <si>
     <t>Hand Mirror</t>
   </si>
   <si>
@@ -1816,26 +1767,43 @@
 これでオッケーっと。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;よし。
+これでオッケーっと。</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;んにゃ？
 なんで鍵閉めるにゃ？
 脱出ゲームにゃん。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;んにゃ？
+    <t>\n&lt;Shina&gt;んにゃ？
 なんで鍵閉めるにゃ？脱出ゲームにゃん。</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;えっ・・・？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;えっ・・・？</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;鍵閉めたら出られんにゃ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;鍵閉めたら出られんにゃ。</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;そうね。
 私としたことがうっかりしていたわ。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;そうね。
+私としたことがうっかりしていたわ。</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;リリーはおっちょこちょいにゃぁ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;リリーはおっちょこちょいにゃぁ。</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;（引っ込みがつかないのね・・・）</t>
@@ -1849,11 +1817,15 @@
 身も心も精奴隷にしてやりましょ。</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;ゲームはまだまだこれからよ。
+    <t>\n&lt;Lily&gt;ゲームはまだまだこれからよ。
 さぁ、コイツの心を折りまくって身も心も精奴隷にしてやりましょ。</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;次はどーやって搾ってやろうかにゃぁ。
+楽しみだし。</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;次はどーやって搾ってやろうかにゃぁ。
 楽しみだし。</t>
   </si>
   <si>
@@ -1862,11 +1834,14 @@
 あははは！</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;ふふ♥
+    <t>\n&lt;Lily&gt;ふふ♥
 抵抗する気力を全て搾り尽くしてやりましょ。あははは！</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;にゃはははー♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;にゃはははー♥</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;くすくす♥</t>
@@ -2110,6 +2085,223 @@
   <si>
     <t>Furthermore, acts of digestion are always accompanied by pleasure.
 There are no descriptions of pain or suffering.</t>
+  </si>
+  <si>
+    <t>未使用イベント未使用イベント未使用イベント未使用イベント
+未使用イベント未使用イベント未使用イベント未使用イベント
+未使用イベント未使用イベント未使用イベント未使用イベント</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（何か考えてみよう・・・）</t>
+  </si>
+  <si>
+    <t>リリー達の日記について</t>
+  </si>
+  <si>
+    <t>情報を整理する</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（淫魔の癖に筆まめなやつらだ。
+何か脱出のヒントになることは無かっただろうか。）</t>
+  </si>
+  <si>
+    <t>・リリーはわざと捕まって地下牢に入っていた
+→脱獄してそのまま館を乗っ取った</t>
+  </si>
+  <si>
+    <t>・リリーは館を襲撃してシィナを淫魔化させた
+→襲撃時に数人吸い尽くした</t>
+  </si>
+  <si>
+    <t>・リリーはシィナの頼みで一緒に暮らすことにした
+→館主当ての手紙の紋章から名前を取った</t>
+  </si>
+  <si>
+    <t>・シィナはこの館の人間に捕まって館主のペットにされた
+→館主は珍しい生き物が好き</t>
+  </si>
+  <si>
+    <t>・ライムは元スラミー
+→スラミーの生息地は本来ダンデリオ周辺</t>
+  </si>
+  <si>
+    <t>・シィナは精奴隷を解放したことがある
+→吸い尽くさないこともある？</t>
+  </si>
+  <si>
+    <t>・リリーたちがギルドに依頼を出した
+→人間をおびき寄せる為</t>
+  </si>
+  <si>
+    <t>・シィナが囚人服を見つけた
+→何故か館に囚人服があった</t>
+  </si>
+  <si>
+    <t>・リリー達はたまに何かの視線を感じることがある
+→幽霊ではない？</t>
+  </si>
+  <si>
+    <t>・ある日突然大量のオークが湧いた
+→リリーがチャームをしてオークを使役している</t>
+  </si>
+  <si>
+    <t>・アーコは商売をするために館に来た
+→シィナと再会した</t>
+  </si>
+  <si>
+    <t>・精奴隷の食事はライムが作る
+→レシピはここで働いていた料理人のもの</t>
+  </si>
+  <si>
+    <t>・過去に脱獄した精奴隷がいる
+→鍵を掛け忘れたわけではない</t>
+  </si>
+  <si>
+    <t>・ライムは食欲旺盛なようだ
+→太ると身体を分離する</t>
+  </si>
+  <si>
+    <t>・リリーは本を読むのが趣味なようだ
+→知識欲が強い</t>
+  </si>
+  <si>
+    <t>・リリーたちは恋について考えることがある
+→少しは話が通じる可能性がある？
+→無さそう</t>
+  </si>
+  <si>
+    <t>・お風呂はライムの部屋
+→ライムは水分が必要</t>
+  </si>
+  <si>
+    <t>・リリーとシィナはよくケンカをする
+→お互いに自分の方が上だと思っているようだ</t>
+  </si>
+  <si>
+    <t>・ライムは直射日光で溶ける
+→スラミーの性質が引き継がれている</t>
+  </si>
+  <si>
+    <t>・シィナは直感が鋭い
+→ノラ猫時代に培った野生の感</t>
+  </si>
+  <si>
+    <t>・リリーは恋愛小説にハマっている
+→淫魔の癖に乙女な部分もあるようだ</t>
+  </si>
+  <si>
+    <t>・アーコは人間と淫魔の共存を願っている
+→根本的に人間＝食料なので難しい</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（リリーたちは長い間ここで生活しているみたいだ。
+少しは何を考えているのか分かった気がする・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（リリーたちについて考えるにはまだ情報が足りない・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（ここはただのお金持ちが住んでいただけの館じゃない。
+秘密がある。
+きっと何か目的がある施設だ。）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（館について考えるにはまだ情報が足りない・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（館主は魔物や動物を集めていた。
+おそらく淫魔も・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（魔物について考えるにはまだ情報が足りない・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（ここで暮らしていた人たちはどこへ・・・？
+全員吸い尽くされたとは考えられない。
+逃げ切れた人もいるはず。）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（それならどうして・・・
+討伐依頼を出さなかったんだろう。
+出せない理由があった？）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（犠牲者について考えるにはまだ情報が足りない・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（オークたちはどこから入って来たんだろう。
+ひょっとすると抜け穴が・・・？）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（まだ見落としがありそうだ・・・）</t>
+  </si>
+  <si>
+    <t>日記について</t>
+  </si>
+  <si>
+    <t>・過去に脱獄した精奴隷がいる
+→脱走者はどこへ？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（オークたちはどこから入って来たんだろう。
+ひょっとすると、どこかに隠し通路みたいなものが・・・？）</t>
+  </si>
+  <si>
+    <t>情報の整理（日記の確認）</t>
+  </si>
+  <si>
+    <t>しかばね</t>
+  </si>
+  <si>
+    <t>返事がない・・・
+ただの屍のようだ・・・</t>
+  </si>
+  <si>
+    <t>屍だ・・・
+リリー達の犠牲者なのだろうか・・・
+・・・</t>
+  </si>
+  <si>
+    <t>骨の中にレコシードがある・・・
+何かメッセージが録音されているかもしれない。
+聞いてみよう。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;畜生・・・
+こんなところに閉じ込めやがって。
+一体、俺をどうする気なんだ。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;今にして思えば、あのメイドが出してきた紅茶・・・
+あれに何か入っていたに違いない。
+急な眠気が襲ってきて、気が付いたら檻の中だ。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;俺が冒険者だと聞いて、
+居なくなっても問題ないと思われたんだろう。
+クソ・・・余計なことを喋るんじゃなかった。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;隣の檻のヤツは正気を失っているのか、
+ひたすらに『もう実験は嫌だ』と繰り返している。
+さっきからゴツゴツと鳴る音は、壁に頭をぶつけているのか？</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;俺もこれからあんな風になるのかもしれない。
+モルモットにされて正気を失う前に、
+このレコシードは飲み込んでおこう。</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;万が一俺が死んで、そしてこれを聞いたのが善良な人間なら
+この館の悪事を暴き、しかるべき報いを受けさせてくれ。
+・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;ごくっ。</t>
+  </si>
+  <si>
+    <t>悪事・・・？
+この館は一体・・・</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2640,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,2474 +2648,2636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>113</v>
       </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>117</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>119</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>121</v>
       </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>122</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>125</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>128</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>131</v>
       </c>
-      <c r="D71" t="s">
+      <c r="B71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>133</v>
       </c>
       <c r="B72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="D72" t="s">
+      <c r="B73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>136</v>
       </c>
-      <c r="D73" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>137</v>
       </c>
-      <c r="D74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="D75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>139</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B76" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>141</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>143</v>
       </c>
-      <c r="D78" t="s">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>145</v>
       </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>147</v>
       </c>
-      <c r="D80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="B82" t="s">
         <v>148</v>
       </c>
-      <c r="D81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>149</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>150</v>
       </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
         <v>152</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>153</v>
       </c>
-      <c r="D83" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
         <v>154</v>
       </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>155</v>
       </c>
-      <c r="D84" t="s">
+      <c r="B86" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>157</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>158</v>
       </c>
-      <c r="D85" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="B88" t="s">
         <v>160</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>161</v>
       </c>
-      <c r="D86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="B89" t="s">
         <v>162</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>163</v>
       </c>
-      <c r="D87" t="s">
+      <c r="B90" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>165</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>166</v>
       </c>
-      <c r="D88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>167</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>168</v>
       </c>
-      <c r="D89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>169</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>170</v>
       </c>
-      <c r="D90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>171</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>172</v>
       </c>
-      <c r="D91" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>173</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>174</v>
       </c>
-      <c r="D92" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>175</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>176</v>
       </c>
-      <c r="D93" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="B97" t="s">
         <v>178</v>
       </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>179</v>
       </c>
-      <c r="D94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B98" t="s">
         <v>180</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>181</v>
       </c>
-      <c r="D95" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="B99" t="s">
         <v>182</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>183</v>
       </c>
-      <c r="D96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B100" t="s">
         <v>184</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>185</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B101" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>187</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>188</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="B103" t="s">
         <v>190</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>191</v>
       </c>
-      <c r="D99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="B104" t="s">
         <v>192</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>193</v>
       </c>
-      <c r="D100" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="B105" t="s">
         <v>194</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>195</v>
       </c>
-      <c r="D101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+      <c r="B106" t="s">
         <v>196</v>
       </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>197</v>
       </c>
-      <c r="D102" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="B107" t="s">
         <v>198</v>
       </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>199</v>
       </c>
-      <c r="D103" t="s">
+      <c r="B108" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>200</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B109" t="s">
         <v>201</v>
       </c>
-      <c r="D104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>202</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B110" t="s">
         <v>203</v>
       </c>
-      <c r="D105" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>204</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B111" t="s">
         <v>205</v>
       </c>
-      <c r="D106" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>206</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B112" t="s">
         <v>207</v>
       </c>
-      <c r="D107" t="s">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+      <c r="B113" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>210</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B114" t="s">
         <v>211</v>
       </c>
-      <c r="D109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>212</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B115" t="s">
         <v>213</v>
       </c>
-      <c r="D110" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>214</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B116" t="s">
         <v>215</v>
       </c>
-      <c r="D111" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>216</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B117" t="s">
         <v>217</v>
       </c>
-      <c r="D112" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>218</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B118" t="s">
         <v>219</v>
       </c>
-      <c r="D113" t="s">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="B119" t="s">
         <v>221</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>222</v>
       </c>
-      <c r="D114" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="B120" t="s">
         <v>223</v>
       </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>224</v>
       </c>
-      <c r="D115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="B121" t="s">
         <v>225</v>
       </c>
-      <c r="B116" t="s">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>226</v>
       </c>
-      <c r="D116" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="B122" t="s">
         <v>227</v>
       </c>
-      <c r="B117" t="s">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>228</v>
       </c>
-      <c r="D117" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="B123" t="s">
         <v>229</v>
       </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>230</v>
       </c>
-      <c r="D118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="B124" t="s">
         <v>231</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>232</v>
       </c>
-      <c r="D119" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="B125" t="s">
         <v>233</v>
       </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>234</v>
       </c>
-      <c r="D120" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="B126" t="s">
         <v>235</v>
       </c>
-      <c r="B121" t="s">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>236</v>
       </c>
-      <c r="D121" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="B127" t="s">
         <v>237</v>
       </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>238</v>
       </c>
-      <c r="D122" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+      <c r="B128" t="s">
         <v>239</v>
       </c>
-      <c r="B123" t="s">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>240</v>
       </c>
-      <c r="D123" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+      <c r="B129" t="s">
         <v>241</v>
       </c>
-      <c r="B124" t="s">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>242</v>
       </c>
-      <c r="D124" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+      <c r="B130" t="s">
         <v>243</v>
       </c>
-      <c r="B125" t="s">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>244</v>
       </c>
-      <c r="D125" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+      <c r="B131" t="s">
         <v>245</v>
       </c>
-      <c r="B126" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>246</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B132" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>247</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B133" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>248</v>
       </c>
-      <c r="D127" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+      <c r="B134" t="s">
         <v>249</v>
       </c>
-      <c r="B128" t="s">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>250</v>
       </c>
-      <c r="D128" t="s">
+      <c r="B135" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>251</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B136" t="s">
         <v>252</v>
       </c>
-      <c r="D129" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>253</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B137" t="s">
         <v>254</v>
       </c>
-      <c r="D130" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>255</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>256</v>
       </c>
-      <c r="D131" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+      <c r="B139" t="s">
         <v>257</v>
       </c>
-      <c r="D132" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>258</v>
       </c>
-      <c r="D133" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+      <c r="B140" t="s">
         <v>259</v>
       </c>
-      <c r="D134" t="s">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+      <c r="B141" t="s">
         <v>261</v>
       </c>
-      <c r="D135" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>262</v>
       </c>
-      <c r="D136" t="s">
+      <c r="B142" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>264</v>
       </c>
-      <c r="D137" t="s">
+      <c r="B143" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>266</v>
       </c>
-      <c r="D138" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+      <c r="B144" t="s">
         <v>267</v>
       </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+      <c r="B145" t="s">
         <v>269</v>
       </c>
-      <c r="D140" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+      <c r="B146" t="s">
         <v>271</v>
       </c>
-      <c r="D141" t="s">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+      <c r="B147" t="s">
         <v>273</v>
       </c>
-      <c r="D142" t="s">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+      <c r="B148" t="s">
         <v>275</v>
       </c>
-      <c r="D143" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+      <c r="B149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>277</v>
       </c>
-      <c r="D144" t="s">
+      <c r="B150" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>279</v>
       </c>
-      <c r="D145" t="s">
+      <c r="B151" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>281</v>
       </c>
-      <c r="D146" t="s">
+      <c r="B152" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>283</v>
       </c>
-      <c r="D147" t="s">
+      <c r="B153" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>285</v>
       </c>
-      <c r="D148" t="s">
+      <c r="B154" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+      <c r="B155" t="s">
         <v>288</v>
       </c>
-      <c r="D150" t="s">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+      <c r="B156" t="s">
         <v>290</v>
       </c>
-      <c r="D151" t="s">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+      <c r="B157" t="s">
         <v>292</v>
       </c>
-      <c r="D152" t="s">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+      <c r="B158" t="s">
         <v>294</v>
       </c>
-      <c r="D153" t="s">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
+      <c r="B159" t="s">
         <v>296</v>
       </c>
-      <c r="D154" t="s">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+      <c r="B160" t="s">
         <v>298</v>
       </c>
-      <c r="D155" t="s">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+      <c r="B161" t="s">
         <v>300</v>
       </c>
-      <c r="D156" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+      <c r="B162" t="s">
         <v>302</v>
       </c>
-      <c r="D157" t="s">
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+      <c r="B163" t="s">
         <v>304</v>
       </c>
-      <c r="D158" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+      <c r="B164" t="s">
         <v>306</v>
       </c>
-      <c r="D159" t="s">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+      <c r="B165" t="s">
         <v>308</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+      <c r="B166" t="s">
         <v>310</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+      <c r="B167" t="s">
         <v>312</v>
       </c>
-      <c r="D162" t="s">
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+      <c r="B168" t="s">
         <v>314</v>
       </c>
-      <c r="D163" t="s">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+      <c r="B169" t="s">
         <v>316</v>
       </c>
-      <c r="D164" t="s">
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+      <c r="B170" t="s">
         <v>318</v>
       </c>
-      <c r="D165" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+      <c r="B171" t="s">
         <v>320</v>
       </c>
-      <c r="D166" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+      <c r="B172" t="s">
         <v>322</v>
       </c>
-      <c r="D167" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+      <c r="B173" t="s">
         <v>324</v>
       </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+      <c r="B174" t="s">
         <v>326</v>
       </c>
-      <c r="D169" t="s">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="B175" t="s">
         <v>328</v>
       </c>
-      <c r="D170" t="s">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+      <c r="B176" t="s">
         <v>330</v>
       </c>
-      <c r="D171" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+      <c r="B177" t="s">
         <v>332</v>
       </c>
-      <c r="D172" t="s">
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+      <c r="B178" t="s">
         <v>334</v>
       </c>
-      <c r="D173" t="s">
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+      <c r="B179" t="s">
         <v>336</v>
       </c>
-      <c r="D174" t="s">
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+      <c r="B180" t="s">
         <v>338</v>
       </c>
-      <c r="D175" t="s">
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+      <c r="B181" t="s">
         <v>340</v>
       </c>
-      <c r="D176" t="s">
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+      <c r="B182" t="s">
         <v>342</v>
       </c>
-      <c r="D177" t="s">
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+      <c r="B183" t="s">
         <v>344</v>
       </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+      <c r="B184" t="s">
         <v>346</v>
       </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
+      <c r="B185" t="s">
         <v>348</v>
       </c>
-      <c r="D180" t="s">
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+      <c r="B186" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>350</v>
       </c>
-      <c r="D181" t="s">
+      <c r="B187" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>352</v>
       </c>
-      <c r="D182" t="s">
+      <c r="B188" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>354</v>
       </c>
-      <c r="D183" t="s">
+      <c r="B189" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>356</v>
       </c>
-      <c r="D184" t="s">
+      <c r="B190" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>358</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B191" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+      <c r="B192" t="s">
         <v>361</v>
       </c>
-      <c r="D187" t="s">
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
+      <c r="B193" t="s">
         <v>363</v>
       </c>
-      <c r="D188" t="s">
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+      <c r="B194" t="s">
         <v>365</v>
       </c>
-      <c r="D189" t="s">
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+      <c r="B195" t="s">
         <v>367</v>
       </c>
-      <c r="D190" t="s">
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+      <c r="B196" t="s">
         <v>369</v>
       </c>
-      <c r="D191" t="s">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+      <c r="B197" t="s">
         <v>371</v>
       </c>
-      <c r="D192" t="s">
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+      <c r="B198" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>373</v>
       </c>
-      <c r="D193" t="s">
+      <c r="B199" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>375</v>
       </c>
-      <c r="D194" t="s">
+      <c r="B200" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>377</v>
       </c>
-      <c r="C195" t="s">
+      <c r="B201" t="s">
         <v>378</v>
       </c>
-      <c r="D195" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>379</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B202" t="s">
         <v>380</v>
       </c>
-      <c r="D196" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
         <v>381</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B203" t="s">
         <v>382</v>
       </c>
-      <c r="D197" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+      <c r="B204" t="s">
         <v>384</v>
       </c>
-      <c r="D199" t="s">
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+      <c r="B205" t="s">
         <v>386</v>
       </c>
-      <c r="D200" t="s">
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
+      <c r="B206" t="s">
         <v>388</v>
       </c>
-      <c r="D201" t="s">
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
+      <c r="B207" t="s">
         <v>390</v>
       </c>
-      <c r="D202" t="s">
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
+      <c r="B208" t="s">
         <v>392</v>
       </c>
-      <c r="D203" t="s">
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
+      <c r="B209" t="s">
         <v>394</v>
       </c>
-      <c r="D204" t="s">
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
+      <c r="B210" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>396</v>
       </c>
-      <c r="D205" t="s">
+      <c r="B211" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>398</v>
       </c>
-      <c r="D206" t="s">
+      <c r="B212" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>400</v>
       </c>
-      <c r="D207" t="s">
+      <c r="B213" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
+      <c r="B214" t="s">
         <v>402</v>
       </c>
-      <c r="D208" t="s">
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
+      <c r="B215" t="s">
         <v>404</v>
       </c>
-      <c r="D209" t="s">
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
+      <c r="B216" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>407</v>
       </c>
-      <c r="D211" t="s">
+      <c r="B217" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>409</v>
       </c>
-      <c r="D212" t="s">
+      <c r="B218" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>411</v>
       </c>
-      <c r="B213" t="s">
-        <v>411</v>
-      </c>
-      <c r="D213" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
+      <c r="B219" t="s">
         <v>412</v>
       </c>
-      <c r="D214" t="s">
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
+      <c r="B220" t="s">
         <v>414</v>
       </c>
-      <c r="D215" t="s">
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
+      <c r="B221" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>416</v>
       </c>
-      <c r="D216" t="s">
+      <c r="B222" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>418</v>
       </c>
-      <c r="D217" t="s">
+      <c r="B223" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>420</v>
       </c>
-      <c r="D218" t="s">
+      <c r="B224" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>422</v>
       </c>
-      <c r="D219" t="s">
+      <c r="B225" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
+      <c r="B226" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>424</v>
       </c>
-      <c r="D220" t="s">
+      <c r="B227" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>426</v>
       </c>
-      <c r="B221" t="s">
-        <v>426</v>
-      </c>
-      <c r="D221" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
+      <c r="B228" t="s">
         <v>427</v>
       </c>
-      <c r="D222" t="s">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
+      <c r="B229" t="s">
         <v>429</v>
       </c>
-      <c r="D223" t="s">
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
+      <c r="B230" t="s">
         <v>431</v>
       </c>
-      <c r="D224" t="s">
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
+      <c r="B231" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
         <v>433</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B232" t="s">
         <v>433</v>
       </c>
-      <c r="D225" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
+      <c r="B233" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
         <v>435</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B234" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>436</v>
       </c>
-      <c r="C227" t="s">
+      <c r="B235" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>437</v>
       </c>
-      <c r="D227" t="s">
+      <c r="B236" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>438</v>
       </c>
-      <c r="D228" t="s">
+      <c r="B237" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
+      <c r="B238" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>440</v>
       </c>
-      <c r="D229" t="s">
+      <c r="B239" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
+      <c r="B240" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>442</v>
       </c>
-      <c r="D230" t="s">
+      <c r="B241" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
+      <c r="B242" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
+      <c r="B243" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
+      <c r="B244" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
+      <c r="B245" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
+      <c r="B246" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
+      <c r="B247" t="s">
         <v>454</v>
       </c>
-      <c r="B241" t="s">
-        <v>454</v>
-      </c>
-      <c r="D241" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
         <v>455</v>
       </c>
-      <c r="D242" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
+      <c r="B248" t="s">
         <v>456</v>
       </c>
-      <c r="D243" t="s">
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
+      <c r="B249" t="s">
         <v>458</v>
       </c>
-      <c r="D244" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>459</v>
       </c>
-      <c r="D245" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
+      <c r="B250" t="s">
         <v>460</v>
       </c>
-      <c r="D246" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
         <v>461</v>
       </c>
-      <c r="D247" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
+      <c r="B251" t="s">
         <v>462</v>
       </c>
-      <c r="D248" t="s">
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
+      <c r="B252" t="s">
         <v>464</v>
       </c>
-      <c r="D249" t="s">
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
+      <c r="B253" t="s">
         <v>466</v>
       </c>
-      <c r="D250" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
         <v>467</v>
       </c>
-      <c r="D251" t="s">
+      <c r="B254" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>469</v>
       </c>
-      <c r="D252" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+      <c r="B255" t="s">
         <v>470</v>
       </c>
-      <c r="D253" t="s">
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+      <c r="B256" t="s">
         <v>472</v>
       </c>
-      <c r="D254" t="s">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
+      <c r="B257" t="s">
         <v>474</v>
       </c>
-      <c r="D255" t="s">
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
+      <c r="B258" t="s">
         <v>476</v>
       </c>
-      <c r="D256" t="s">
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
+      <c r="B259" t="s">
         <v>478</v>
       </c>
-      <c r="D257" t="s">
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
+      <c r="B260" t="s">
         <v>480</v>
       </c>
-      <c r="D258" t="s">
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
+      <c r="B261" t="s">
         <v>482</v>
       </c>
-      <c r="D259" t="s">
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
+      <c r="B262" t="s">
         <v>484</v>
       </c>
-      <c r="D260" t="s">
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
+      <c r="B263" t="s">
         <v>486</v>
       </c>
-      <c r="D261" t="s">
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
+      <c r="B264" t="s">
         <v>488</v>
       </c>
-      <c r="D262" t="s">
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
+      <c r="B265" t="s">
         <v>490</v>
       </c>
-      <c r="D263" t="s">
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
+      <c r="B266" t="s">
         <v>492</v>
       </c>
-      <c r="D264" t="s">
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
+      <c r="B267" t="s">
         <v>494</v>
       </c>
-      <c r="D265" t="s">
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
+      <c r="B268" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
         <v>496</v>
       </c>
-      <c r="D266" t="s">
+      <c r="B269" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
+      <c r="B270" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
         <v>498</v>
       </c>
-      <c r="D267" t="s">
+      <c r="B271" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
+      <c r="B272" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
         <v>500</v>
       </c>
-      <c r="D268" t="s">
+      <c r="B273" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>501</v>
       </c>
-      <c r="D269" t="s">
+      <c r="B274" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
         <v>502</v>
       </c>
-      <c r="D270" t="s">
+      <c r="B275" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>503</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B276" t="s">
         <v>503</v>
       </c>
-      <c r="D271" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" t="s">
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
         <v>504</v>
       </c>
-      <c r="D272" t="s">
+      <c r="B277" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
+      <c r="B278" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
+      <c r="B279" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" t="s">
+      <c r="B280" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" t="s">
+      <c r="B281" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" t="s">
+      <c r="B282" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" t="s">
+      <c r="B283" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" t="s">
+      <c r="B284" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
         <v>512</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B285" t="s">
         <v>512</v>
       </c>
-      <c r="D280" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" t="s">
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
         <v>513</v>
       </c>
-      <c r="D281" t="s">
+      <c r="B286" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" t="s">
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" t="s">
+      <c r="B287" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
+      <c r="B288" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" t="s">
+      <c r="B289" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
+      <c r="B290" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" t="s">
+      <c r="B291" t="s">
         <v>521</v>
       </c>
-      <c r="D289" t="s">
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
+      <c r="B292" t="s">
         <v>523</v>
       </c>
-      <c r="D290" t="s">
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
+      <c r="B293" t="s">
         <v>525</v>
       </c>
-      <c r="D291" t="s">
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
+      <c r="B294" t="s">
         <v>527</v>
       </c>
-      <c r="D292" t="s">
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
+      <c r="B295" t="s">
         <v>529</v>
       </c>
-      <c r="D293" t="s">
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
+      <c r="B296" t="s">
         <v>531</v>
       </c>
-      <c r="D294" t="s">
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
         <v>533</v>
       </c>
-      <c r="D295" t="s">
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
         <v>535</v>
       </c>
-      <c r="D296" t="s">
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
         <v>536</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map102.xlsx
+++ b/data/Map102.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B9E5C-551C-4999-AFA1-7D41DBBAD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="682">
   <si>
     <t>自動実行</t>
   </si>
@@ -2303,18 +2309,401 @@
     <t>悪事・・・？
 この館は一体・・・</t>
   </si>
+  <si>
+    <t>\n&lt;Alsto&gt;If you get a chance to escape this mansion, don't
+hesitate to take it. Got it?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Oh, sorry, but if you find any food, could you please 
+bring it to me? I'm starving...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Guhhhh...
+Ahh, my stomach...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I know now's a bad time, but can you bring me
+any food you find? I'm so hungry.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;You managed to get into it after all.
+I'm even stronger than a succubus. Heheheh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I guest it must feel weird that you came on my boobs.
+But you know, we're only doing this so that those succubi \nwon't take advantage of you, so don't feel too bad...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I'm really serious. Sorry.
+I just didn't want you to lose confidence. Just forget it...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Shhh-!
+Don't be so loud...!
+You'll wake everyone else up...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I got a bit hungry...♥
+\n[1]...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Let's have sex♥ Oh, please♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Come here...♥ \n[1]...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Hah... Hah...♥
+O-oh no...♥
+I-I can't resist...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wanna fuck her... I wanna fuck her...♥
+Ahhh...♥ I can't hold back♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Hah... Hah...♥
+I-I can't resist...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;There.
+That takes care of that.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaa?
+Why'd you lock the door? What about the escape game, nyaan?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ehhh...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;If you lock the door, they can't get out, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Of course.
+What was I thinking?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're such a scatterbrain, Lily, nyaa.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;(She just keeps digging herself deeper...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;The game is still far from over.
+Now, let's crush their spirit, and make them a semen slave in body and soul.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;How shall I drain them next time, nyaa.
+I'm looking forward to it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Fufu♥
+We'll squeeze out every last drop of your willpower. Ahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Hee hee♥</t>
+  </si>
+  <si>
+    <t>Should I give up today's search...?
+(Full recovery and passage of time +1)
+\C[10]Lily and Shina will sneak in tonight.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Wake up, you pig.
+It's time for a midnight snack.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Sorry to barge into your bedroom♥
+But semen slaves don't get to have privacy♥
+Isn't that right?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;If we tell your cock to get up in the middle of the night
+then your cock's gonna get up, nya.
+Understand?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Fuu♥
+It looks like it's already gotten up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Hah... Hah...♥
+Why does it have to be now...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Hah... Hah...♥
+I-I can't get away...)</t>
+  </si>
+  <si>
+    <t>Should I give up today's search...?
+(Full recovery and passage of time +1)
+\C[10]Meria will sneak in tonight.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I'm sorry I woke you.
+I thought I could finish while you were asleep.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;You're wondering why I'm here...?
+Never mind that.
+More importantly...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Let me borrow your dick.
+Big brother.
+I want to have sex.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Wh-what do you mean...
+Meria...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Give it♥ Let me have sex♥
+Put it in now♥ Put it in♥
+Put it in put it in♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Hah... Hah...♥
+Something is wrong...
+This is really bad...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Let me collect my thoughts...)</t>
+  </si>
+  <si>
+    <t>Collect information</t>
+  </si>
+  <si>
+    <t>About Lily's diaries</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(The succubi record their thoughts so diligently.
+Was there some kind of hint on how to escape?)</t>
+  </si>
+  <si>
+    <t>・Lily allowed herself to be captured and thrown in the dungeon.
+→She escaped, and took control of the mansion.</t>
+  </si>
+  <si>
+    <t>・Lily turned Shina into a succubus while seizing the mansion.
+→Several people were drained during the attack.</t>
+  </si>
+  <si>
+    <t>・At Shina's request, Lily agreed to live together with her.
+→She got her name off a crest she found on an envelope.</t>
+  </si>
+  <si>
+    <t>・Shina was caught by a servant and made into a pet.
+→The master liked rare and unusual creatures.</t>
+  </si>
+  <si>
+    <t>・Lime was originally a slime.
+→Slimes primarily live around the outskirts of Dandelion.</t>
+  </si>
+  <si>
+    <t>・Shina once released a semen slave.
+→Not all semen slaves are drained to death?</t>
+  </si>
+  <si>
+    <t>・Lily and company sent a request to the guild.
+→They attempted to lure humans to them.</t>
+  </si>
+  <si>
+    <t>・Shina found a prison uniform
+→For some reason, there were prison uniforms in the mansion.</t>
+  </si>
+  <si>
+    <t>・Lily and the others sometimes feel like they're being watched.
+→Is it some kind of ghost?</t>
+  </si>
+  <si>
+    <t>・One day, a bunch of orcs suddenly appeared.
+→Lily charmed them, and put them all to work.</t>
+  </si>
+  <si>
+    <t>・Ako came to the mansion to trade.
+→She reunited with Shina.</t>
+  </si>
+  <si>
+    <t>・Lime makes all the food for the semen slaves.
+→The recipes belonged to the cook that used to work here.</t>
+  </si>
+  <si>
+    <t>・A semen slave escaped in the past.
+→No one admitted they forgot to lock the door.</t>
+  </si>
+  <si>
+    <t>・Lime has a healthy appetite.
+→When she gets too fat, she divides her body.</t>
+  </si>
+  <si>
+    <t>・Lily seems to enjoy reading books.
+→She has a big appetite for knowledge.</t>
+  </si>
+  <si>
+    <t>・Lily and the others sometimes think about love.
+→Do we have a little bit in common after all?
+→Probably not.</t>
+  </si>
+  <si>
+    <t>・The bathroom is Lime's room.
+→Lime requires fluids to live.</t>
+  </si>
+  <si>
+    <t>・Lily and Shina fight very frequently.
+→Each seems to think she's superior to the other.</t>
+  </si>
+  <si>
+    <t>・Lime melts in direct sunlight.
+→Her body still possesses all the properties of a slime.</t>
+  </si>
+  <si>
+    <t>・Lily has a thing for romance novels.
+→It seems even succubi have an innocent side.</t>
+  </si>
+  <si>
+    <t>・Ako wishes that humans and succubi could co-exist.
+→Ultimately, humans = food, so this is tricky.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I don't have enough information to think about Lily and them...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(This wasn't just a mansion for some rich person to live in.
+There's a secret here.
+This place is a facility made for some specific purpose.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(There's not enough information to think about the mansion...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(The master was collecting monsters and animals.
+Possibly succubi as well...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Where are all the people that used to live here...?
+There's no way they were all drained.
+Some people must have escaped.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(But if that's the case...
+Why did no one submit a subjugation request?
+Was something keeping them from doing so?)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(There's not enough information to think about the victims...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Lily and them have been living here for a long time, it seems.
+I feel like I understand them just a bit...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Where did all the orcs come from?
+Some kind of secret passage...?)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(It still feels like I'm missing something...)</t>
+  </si>
+  <si>
+    <t>About the diaries</t>
+  </si>
+  <si>
+    <t>・A semen slave has escaped in the past.
+→Where is this escapee?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Where did all the orcs come from?
+Is there a hidden passage somewhere around here...?)</t>
+  </si>
+  <si>
+    <t>Organize information (Check diary)</t>
+  </si>
+  <si>
+    <t>No answer...
+It's just a corpse...</t>
+  </si>
+  <si>
+    <t>A corpse...
+One of Lily's victims, perhaps...
+...</t>
+  </si>
+  <si>
+    <t>There's a recorder seed among the bones...
+They may have recorded a message.
+Let's hear it.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Those sons of bitches...
+How could they lock me up here.
+What the hell do they want with me?</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Now that I think about it, that tea that the maid served...
+There must have been something in it.
+I suddenly got very drowsy, then I woke up in this cell.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;I guess when I told them I was an adventurer,
+they figured that no one would notice that I went missing.
+Dammit... Sometimes I talk too much.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;I think the guy in the next cell over is losing it.
+He keeps saying, 'no more experiments' over and over.
+And that banging sound... Is he hitting his head on the wall?</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;That could be me pretty soon, too.
+Before I become a guinea pig and lose my head, I'm
+swallowing this recorder seed.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;If I happen to die, and a good person manages to hear this
+seed, please expose the evil deeds in this mansion.
+Please avenge me...</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Gulp.</t>
+  </si>
+  <si>
+    <t>Evil deeds...?
+What went on in this mansion...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I didn't think there would be 3 of them
+That's a bit odd for succubi.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;I'm sorry.
+I never would have guessed there'd be 3 of them... \nThe hunters have become the hunted.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Dammit...
+Waking up to this...♥ Oh no...♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I've hit my limit.
+It's driving me crazy,
+being stuck in a place like this.</t>
+  </si>
+  <si>
+    <t>・Shina has sharp instincts.
+→Her instincts are sharp from her life as a stray cat.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(There's not enough information to think about the monsters...)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2325,28 +2714,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2636,19 +3037,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2664,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2672,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2680,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +3099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2704,15 +3107,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2720,7 +3123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2728,39 +3131,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2768,7 +3171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2776,7 +3179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2784,55 +3187,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2840,63 +3243,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2904,7 +3307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -2912,7 +3315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2920,7 +3323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2928,7 +3331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2936,7 +3339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2944,7 +3347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2952,7 +3355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2960,7 +3363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +3371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2976,7 +3379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2984,7 +3387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -2992,7 +3395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -3000,7 +3403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -3008,7 +3411,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3016,7 +3419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -3024,7 +3427,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -3032,7 +3435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3040,7 +3443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -3048,7 +3451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3056,7 +3459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -3064,7 +3467,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3072,7 +3475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -3080,7 +3483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -3088,7 +3491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -3096,7 +3499,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -3104,7 +3507,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -3112,7 +3515,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -3120,7 +3523,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -3128,7 +3531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -3136,7 +3539,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -3144,7 +3547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -3152,7 +3555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -3160,7 +3563,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -3168,7 +3571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -3176,7 +3579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -3184,7 +3587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -3192,7 +3595,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -3200,7 +3603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -3208,7 +3611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -3216,55 +3619,73 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>137</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>141</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>143</v>
       </c>
@@ -3272,7 +3693,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -3280,17 +3701,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -3298,7 +3719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -3306,7 +3727,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -3314,7 +3735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -3322,7 +3743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -3330,7 +3751,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -3338,7 +3759,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -3346,7 +3767,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -3354,7 +3775,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -3362,7 +3783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -3370,7 +3791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -3378,7 +3799,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -3386,7 +3807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -3394,7 +3815,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -3402,7 +3823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>175</v>
       </c>
@@ -3410,7 +3831,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -3418,7 +3839,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -3426,7 +3847,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -3434,7 +3855,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -3442,7 +3863,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>185</v>
       </c>
@@ -3450,7 +3871,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>187</v>
       </c>
@@ -3458,7 +3879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -3466,7 +3887,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -3474,7 +3895,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>193</v>
       </c>
@@ -3482,7 +3903,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -3490,7 +3911,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -3498,7 +3919,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>199</v>
       </c>
@@ -3506,7 +3927,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -3514,7 +3935,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>202</v>
       </c>
@@ -3522,7 +3943,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -3530,7 +3951,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -3538,7 +3959,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -3546,7 +3967,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>210</v>
       </c>
@@ -3554,7 +3975,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>212</v>
       </c>
@@ -3562,7 +3983,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>214</v>
       </c>
@@ -3570,7 +3991,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>216</v>
       </c>
@@ -3578,7 +3999,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -3586,7 +4007,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>220</v>
       </c>
@@ -3594,7 +4015,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -3602,7 +4023,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -3610,7 +4031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>226</v>
       </c>
@@ -3618,7 +4039,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>228</v>
       </c>
@@ -3626,7 +4047,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>230</v>
       </c>
@@ -3634,7 +4055,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -3642,7 +4063,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>234</v>
       </c>
@@ -3650,7 +4071,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>236</v>
       </c>
@@ -3658,7 +4079,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>238</v>
       </c>
@@ -3666,7 +4087,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>240</v>
       </c>
@@ -3674,7 +4095,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>242</v>
       </c>
@@ -3682,7 +4103,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>244</v>
       </c>
@@ -3690,7 +4111,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>246</v>
       </c>
@@ -3698,7 +4119,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>247</v>
       </c>
@@ -3706,7 +4127,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>248</v>
       </c>
@@ -3714,7 +4135,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>250</v>
       </c>
@@ -3722,7 +4143,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>251</v>
       </c>
@@ -3730,7 +4151,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>253</v>
       </c>
@@ -3738,7 +4159,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -3746,7 +4167,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -3754,7 +4175,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>258</v>
       </c>
@@ -3762,7 +4183,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>260</v>
       </c>
@@ -3770,15 +4191,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>264</v>
       </c>
@@ -3786,7 +4207,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>266</v>
       </c>
@@ -3794,15 +4215,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>268</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -3810,7 +4231,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>272</v>
       </c>
@@ -3818,7 +4239,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>274</v>
       </c>
@@ -3826,7 +4247,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>276</v>
       </c>
@@ -3834,7 +4255,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>277</v>
       </c>
@@ -3842,7 +4263,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>279</v>
       </c>
@@ -3850,7 +4271,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>281</v>
       </c>
@@ -3858,7 +4279,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>283</v>
       </c>
@@ -3866,7 +4287,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>285</v>
       </c>
@@ -3874,7 +4295,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>287</v>
       </c>
@@ -3882,7 +4303,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -3890,7 +4311,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -3898,7 +4319,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>293</v>
       </c>
@@ -3906,7 +4327,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>295</v>
       </c>
@@ -3914,7 +4335,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>297</v>
       </c>
@@ -3922,7 +4343,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>299</v>
       </c>
@@ -3930,7 +4351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>301</v>
       </c>
@@ -3938,7 +4359,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>303</v>
       </c>
@@ -3946,7 +4367,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>305</v>
       </c>
@@ -3954,7 +4375,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>307</v>
       </c>
@@ -3962,7 +4383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>309</v>
       </c>
@@ -3970,7 +4391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>311</v>
       </c>
@@ -3978,7 +4399,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>313</v>
       </c>
@@ -3986,7 +4407,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>315</v>
       </c>
@@ -3994,7 +4415,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>317</v>
       </c>
@@ -4002,7 +4423,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>319</v>
       </c>
@@ -4010,7 +4431,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>321</v>
       </c>
@@ -4018,7 +4439,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>323</v>
       </c>
@@ -4026,7 +4447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>325</v>
       </c>
@@ -4034,7 +4455,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>327</v>
       </c>
@@ -4042,7 +4463,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>329</v>
       </c>
@@ -4050,7 +4471,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>331</v>
       </c>
@@ -4058,7 +4479,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>333</v>
       </c>
@@ -4066,7 +4487,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>335</v>
       </c>
@@ -4074,7 +4495,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>337</v>
       </c>
@@ -4082,7 +4503,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>339</v>
       </c>
@@ -4090,7 +4511,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>341</v>
       </c>
@@ -4098,7 +4519,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>343</v>
       </c>
@@ -4106,7 +4527,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>345</v>
       </c>
@@ -4114,7 +4535,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>347</v>
       </c>
@@ -4122,7 +4543,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>349</v>
       </c>
@@ -4130,7 +4551,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>350</v>
       </c>
@@ -4138,7 +4559,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>352</v>
       </c>
@@ -4146,7 +4567,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>354</v>
       </c>
@@ -4154,7 +4575,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>356</v>
       </c>
@@ -4162,7 +4583,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>358</v>
       </c>
@@ -4170,7 +4591,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>360</v>
       </c>
@@ -4178,7 +4599,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>362</v>
       </c>
@@ -4186,7 +4607,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>364</v>
       </c>
@@ -4194,7 +4615,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>366</v>
       </c>
@@ -4202,7 +4623,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>368</v>
       </c>
@@ -4210,7 +4631,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>370</v>
       </c>
@@ -4218,7 +4639,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>372</v>
       </c>
@@ -4226,7 +4647,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>373</v>
       </c>
@@ -4234,7 +4655,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>375</v>
       </c>
@@ -4242,7 +4663,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>377</v>
       </c>
@@ -4250,7 +4671,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>379</v>
       </c>
@@ -4258,7 +4679,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>381</v>
       </c>
@@ -4266,7 +4687,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>383</v>
       </c>
@@ -4274,7 +4695,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>385</v>
       </c>
@@ -4282,7 +4703,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>387</v>
       </c>
@@ -4290,7 +4711,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>389</v>
       </c>
@@ -4298,15 +4719,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>391</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>393</v>
       </c>
@@ -4314,7 +4735,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>395</v>
       </c>
@@ -4322,7 +4743,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>396</v>
       </c>
@@ -4330,7 +4751,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>398</v>
       </c>
@@ -4338,7 +4759,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>400</v>
       </c>
@@ -4346,7 +4767,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>401</v>
       </c>
@@ -4354,7 +4775,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>403</v>
       </c>
@@ -4362,7 +4783,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>405</v>
       </c>
@@ -4370,7 +4791,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>407</v>
       </c>
@@ -4378,7 +4799,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>409</v>
       </c>
@@ -4386,7 +4807,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>411</v>
       </c>
@@ -4394,7 +4815,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>413</v>
       </c>
@@ -4402,7 +4823,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>415</v>
       </c>
@@ -4410,31 +4831,40 @@
         <v>415</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>416</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>418</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>420</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>422</v>
       </c>
@@ -4442,7 +4872,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>423</v>
       </c>
@@ -4450,7 +4880,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>424</v>
       </c>
@@ -4458,15 +4888,15 @@
         <v>425</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>426</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>428</v>
       </c>
@@ -4474,7 +4904,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>430</v>
       </c>
@@ -4482,63 +4912,84 @@
         <v>431</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>432</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>433</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>434</v>
       </c>
       <c r="B233" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>435</v>
       </c>
       <c r="B234" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>436</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>437</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>438</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>439</v>
       </c>
@@ -4546,7 +4997,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>440</v>
       </c>
@@ -4554,7 +5005,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>441</v>
       </c>
@@ -4562,7 +5013,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>442</v>
       </c>
@@ -4570,103 +5021,139 @@
         <v>442</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>443</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>445</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="C243" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>447</v>
       </c>
       <c r="B244" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>449</v>
       </c>
       <c r="B245" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>451</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="C246" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>453</v>
       </c>
       <c r="B247" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="C247" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>455</v>
       </c>
       <c r="B248" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>457</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="C249" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>459</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>461</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="C251" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>463</v>
       </c>
       <c r="B252" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>465</v>
       </c>
       <c r="B253" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>467</v>
       </c>
@@ -4674,7 +5161,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>469</v>
       </c>
@@ -4682,7 +5169,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>471</v>
       </c>
@@ -4690,7 +5177,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>473</v>
       </c>
@@ -4698,7 +5185,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>475</v>
       </c>
@@ -4706,7 +5193,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>477</v>
       </c>
@@ -4714,7 +5201,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>479</v>
       </c>
@@ -4722,7 +5209,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>481</v>
       </c>
@@ -4730,7 +5217,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>483</v>
       </c>
@@ -4738,7 +5225,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>485</v>
       </c>
@@ -4746,7 +5233,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>487</v>
       </c>
@@ -4754,7 +5241,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>489</v>
       </c>
@@ -4762,7 +5249,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>491</v>
       </c>
@@ -4770,7 +5257,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>493</v>
       </c>
@@ -4778,7 +5265,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>495</v>
       </c>
@@ -4786,7 +5273,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>496</v>
       </c>
@@ -4794,7 +5281,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>497</v>
       </c>
@@ -4802,7 +5289,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>498</v>
       </c>
@@ -4810,71 +5297,95 @@
         <v>498</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>499</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
+      <c r="C272" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>500</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
+      <c r="C273" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>501</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
+      <c r="C274" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>502</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
+      <c r="C275" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>503</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
+      <c r="C276" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>504</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
+      <c r="C277" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>505</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
+      <c r="C278" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>506</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
+      <c r="C279" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>507</v>
       </c>
@@ -4882,71 +5393,95 @@
         <v>507</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>508</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
+      <c r="C281" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>509</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
+      <c r="C282" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>510</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
+      <c r="C283" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>511</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
+      <c r="C284" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>512</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
+      <c r="C285" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>513</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
+      <c r="C286" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>514</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="288" spans="1:2">
+      <c r="C287" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>515</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
+      <c r="C288" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>516</v>
       </c>
@@ -4954,7 +5489,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>518</v>
       </c>
@@ -4962,7 +5497,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>520</v>
       </c>
@@ -4970,7 +5505,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>522</v>
       </c>
@@ -4978,7 +5513,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>524</v>
       </c>
@@ -4986,7 +5521,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>526</v>
       </c>
@@ -4994,304 +5529,450 @@
         <v>527</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>528</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>530</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
+    <row r="297" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
+      <c r="C298" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
+      <c r="C299" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
+      <c r="C300" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
+      <c r="C301" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
+      <c r="C302" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
+      <c r="C303" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
+      <c r="C304" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
+      <c r="C305" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
+      <c r="C306" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
+      <c r="C307" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
+      <c r="C308" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
+      <c r="C309" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
+      <c r="C310" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
+      <c r="C311" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
+      <c r="C312" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
+      <c r="C313" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
+      <c r="C314" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
+      <c r="C315" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
+      <c r="C316" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
+      <c r="C317" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
+      <c r="C318" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
+      <c r="C319" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
+      <c r="C320" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
+      <c r="C321" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
+      <c r="C322" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
+      <c r="C323" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
+      <c r="C325" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
+      <c r="C326" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
+      <c r="C327" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="C328" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
+      <c r="C329" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
+      <c r="C330" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
+      <c r="C331" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
+      <c r="C332" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="C333" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
+      <c r="C335" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
+      <c r="C336" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="C337" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="C338" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" t="s">
+    <row r="340" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" t="s">
+      <c r="C340" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" t="s">
+      <c r="C341" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" t="s">
+      <c r="C342" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" t="s">
+      <c r="C343" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" t="s">
+      <c r="C344" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" t="s">
+      <c r="C345" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" t="s">
+      <c r="C346" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" t="s">
+      <c r="C347" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
+      <c r="C348" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
+      <c r="C349" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>585</v>
       </c>
+      <c r="C350" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>